--- a/New-ID-5th-Settelment.xlsx
+++ b/New-ID-5th-Settelment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -47,346 +47,256 @@
     <t>Name in English</t>
   </si>
   <si>
-    <t>بوابة 6</t>
+    <t>فودافون</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>محمد الخديوي</t>
+  </si>
+  <si>
+    <t>Muhammad Khedewy</t>
+  </si>
+  <si>
+    <t>ميدان الف مسكن</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>ابراهيم الباشا</t>
+  </si>
+  <si>
+    <t>1024451185 / 1044477795</t>
+  </si>
+  <si>
+    <t>Ibrahim Elbasha</t>
+  </si>
+  <si>
+    <t>قسم الوايلي</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>محمد احمد</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t>معرض علاء الدين</t>
+  </si>
+  <si>
+    <t>نور محمد محمود</t>
+  </si>
+  <si>
+    <t>1004541764 / 1006021784</t>
+  </si>
+  <si>
+    <t>Nour Mohamed Mahmoud</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>بسنت سليم</t>
+  </si>
+  <si>
+    <t>Bassant Selim</t>
+  </si>
+  <si>
+    <t>عمر افندي</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>عبد الله عمرو فتحي</t>
+  </si>
+  <si>
+    <t>Abdallah Amr Fathy</t>
+  </si>
+  <si>
+    <t>كوبري الدقي</t>
+  </si>
+  <si>
+    <t>مصطفى عمرو</t>
+  </si>
+  <si>
+    <t>Mostafa Amr</t>
+  </si>
+  <si>
+    <t>السواح</t>
+  </si>
+  <si>
+    <t>حدائق القبة</t>
+  </si>
+  <si>
+    <t>فاطمة علي كامل</t>
+  </si>
+  <si>
+    <t>1151322263 / 1211489301</t>
+  </si>
+  <si>
+    <t>Fatma Ali Kamel</t>
+  </si>
+  <si>
+    <t>ولي العهد</t>
+  </si>
+  <si>
+    <t>ندى موسى</t>
+  </si>
+  <si>
+    <t>Nada Mousa</t>
+  </si>
+  <si>
+    <t>مدخل حلوان الاتوستراد</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>بيتر ماهر</t>
+  </si>
+  <si>
+    <t>Peter Maher</t>
+  </si>
+  <si>
+    <t>قليوب</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>عبدالرحمن ايهاب</t>
+  </si>
+  <si>
+    <t>Abdulrahman Ihab</t>
+  </si>
+  <si>
+    <t>المرج</t>
+  </si>
+  <si>
+    <t>فاطمة فوزي</t>
+  </si>
+  <si>
+    <t>Fatma fawzy</t>
+  </si>
+  <si>
+    <t>مازن عادل</t>
+  </si>
+  <si>
+    <t>Mazen Adel</t>
+  </si>
+  <si>
+    <t>مصطفى عبد المعز السيد</t>
+  </si>
+  <si>
+    <t>Mostafa Abd Elmoez Elsayed</t>
+  </si>
+  <si>
+    <t>مريوطية</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>اسلام ابراهيم عبد الرازق</t>
+  </si>
+  <si>
+    <t>Islam Ibrahim Abdelrazig</t>
+  </si>
+  <si>
+    <t>العشرين</t>
+  </si>
+  <si>
+    <t>مروان محمد</t>
+  </si>
+  <si>
+    <t>Marawan Mohamed</t>
+  </si>
+  <si>
+    <t>منة علي محمد سمير</t>
+  </si>
+  <si>
+    <t>Menna Ali Mohamed Samir</t>
+  </si>
+  <si>
+    <t>عمر مدبولي</t>
+  </si>
+  <si>
+    <t>Omar Madboly</t>
+  </si>
+  <si>
+    <t>سمير علي محمد سمير</t>
+  </si>
+  <si>
+    <t>Samir Ali Mohamed Samir</t>
+  </si>
+  <si>
+    <t>الغاز</t>
   </si>
   <si>
     <t>م - الرحاب و التجمع</t>
   </si>
   <si>
-    <t>عبد الرحمن محمد</t>
-  </si>
-  <si>
-    <t>Abdelrahman Mohamed</t>
-  </si>
-  <si>
-    <t>كارفور العبور</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>أحمد سيد أحمد</t>
-  </si>
-  <si>
-    <t>Ahmed Sayed</t>
-  </si>
-  <si>
-    <t>هايبر 1</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>حمزة وليد</t>
-  </si>
-  <si>
-    <t>Alhamza Walid</t>
-  </si>
-  <si>
-    <t>ميدان رابعة</t>
+    <t>أيمن صالح</t>
+  </si>
+  <si>
+    <t>Ayman Saleh</t>
+  </si>
+  <si>
+    <t>ندى عرب</t>
+  </si>
+  <si>
+    <t>Nadaa Arab</t>
+  </si>
+  <si>
+    <t>اول مكرم</t>
   </si>
   <si>
     <t>مدينة نصر</t>
   </si>
   <si>
-    <t>هيثم حافظ</t>
-  </si>
-  <si>
-    <t>Haitham Mohamed</t>
+    <t>عبدالله سميح</t>
+  </si>
+  <si>
+    <t>Abdallah Sameeh</t>
+  </si>
+  <si>
+    <t>كشري هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>مي طاهر</t>
+  </si>
+  <si>
+    <t>Mai Taher</t>
+  </si>
+  <si>
+    <t>المحكمة الدستورية</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>مصطفى المنشاوي</t>
+  </si>
+  <si>
+    <t>Mustafa Elmenshawy</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t>حسن عبد الرحيم</t>
-  </si>
-  <si>
-    <t>Hassan Abdelraheem</t>
-  </si>
-  <si>
-    <t>كارفور المقطم</t>
-  </si>
-  <si>
-    <t>م - المقطم</t>
-  </si>
-  <si>
-    <t>هشام زكريا</t>
-  </si>
-  <si>
-    <t>Hesham Abdelkader</t>
-  </si>
-  <si>
-    <t>كريم الحفناوي</t>
-  </si>
-  <si>
-    <t>1001601577 / 1503080673</t>
-  </si>
-  <si>
-    <t>Karim Ayman Ali</t>
-  </si>
-  <si>
-    <t>التعاون</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>محمد ماجد</t>
-  </si>
-  <si>
-    <t>Mohamed Maged</t>
-  </si>
-  <si>
-    <t>مصطفى فقيه</t>
-  </si>
-  <si>
-    <t>Mostafa Fakeeh Saad</t>
-  </si>
-  <si>
-    <t>قليوب</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>مصطفى محمود</t>
-  </si>
-  <si>
-    <t>1098107355 / 1155272498</t>
-  </si>
-  <si>
-    <t>Mostafa Mahmoud</t>
-  </si>
-  <si>
-    <t>الجراج</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>ألفريد ألبينو مايكل</t>
-  </si>
-  <si>
-    <t>Alfred Albino Michael</t>
-  </si>
-  <si>
-    <t>روكسي العبودي</t>
-  </si>
-  <si>
-    <t>علي خليفة</t>
-  </si>
-  <si>
-    <t>1276114507 / 249910018948</t>
-  </si>
-  <si>
-    <t>Ali Khalifa</t>
-  </si>
-  <si>
-    <t>روكسي عبود</t>
-  </si>
-  <si>
-    <t>جوزيف عادل</t>
-  </si>
-  <si>
-    <t>Joseph Adel</t>
-  </si>
-  <si>
-    <t>نادين نادر</t>
-  </si>
-  <si>
-    <t>Nadine Nader</t>
-  </si>
-  <si>
-    <t>صالح عيسى صالح</t>
-  </si>
-  <si>
-    <t>Saleh eissa Saleh</t>
-  </si>
-  <si>
-    <t>عبد المنعم ابراهيم</t>
-  </si>
-  <si>
-    <t>Abdelmoneim Ibrahim</t>
-  </si>
-  <si>
-    <t>ساندرا ممدوح</t>
-  </si>
-  <si>
-    <t>Sandra Mamdouh</t>
-  </si>
-  <si>
-    <t>يمنى محمد</t>
-  </si>
-  <si>
-    <t>Youmna Mohamed</t>
-  </si>
-  <si>
-    <t>ميدان لبنان</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>احمد موسى</t>
-  </si>
-  <si>
-    <t>Ahmed Mousa</t>
-  </si>
-  <si>
-    <t>عمر علاء الدين محمد</t>
-  </si>
-  <si>
-    <t>Omar Alaaeldein Mohamed</t>
-  </si>
-  <si>
-    <t>نادي وادي دجلة</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>ياسين وائل</t>
-  </si>
-  <si>
-    <t>Yassin Wael</t>
-  </si>
-  <si>
-    <t>فردوس</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>علي زيدان</t>
-  </si>
-  <si>
-    <t>Ali Zidan</t>
-  </si>
-  <si>
-    <t>سلم البارون</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>يوسف ممدوح</t>
-  </si>
-  <si>
-    <t>Yousef Mamdouh</t>
-  </si>
-  <si>
-    <t>صالح صبحي</t>
-  </si>
-  <si>
-    <t>يوسف محمد عبد المنعم</t>
-  </si>
-  <si>
-    <t>Youssef Mohamed Abdelmoneim</t>
-  </si>
-  <si>
-    <t>الخلفاوي</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>سيف السعودي</t>
-  </si>
-  <si>
-    <t>Seif Saudi</t>
-  </si>
-  <si>
-    <t>مطبعة</t>
-  </si>
-  <si>
-    <t>عبد الرحمن ابوعبيدة المهدي</t>
-  </si>
-  <si>
-    <t>1551778327 / 249117715774</t>
-  </si>
-  <si>
-    <t>Abdelrahman Aboubida Elmahdy</t>
-  </si>
-  <si>
-    <t>الطالبية</t>
-  </si>
-  <si>
-    <t>فخر الدين</t>
-  </si>
-  <si>
-    <t>Fakhr Eldeen</t>
-  </si>
-  <si>
-    <t>العشرين</t>
-  </si>
-  <si>
-    <t>مروان محمد</t>
-  </si>
-  <si>
-    <t>1155576946 / 1157830831</t>
-  </si>
-  <si>
-    <t>Marwan Muhammed</t>
-  </si>
-  <si>
-    <t>مريوطية</t>
-  </si>
-  <si>
-    <t>تسنيم طه</t>
-  </si>
-  <si>
-    <t>249119716012 / 1227425758</t>
-  </si>
-  <si>
-    <t>Tasneem Taha</t>
-  </si>
-  <si>
-    <t>محمد نهاد</t>
-  </si>
-  <si>
-    <t>Mohamed Nehad</t>
-  </si>
-  <si>
-    <t>زياد وليد</t>
-  </si>
-  <si>
-    <t>Ziad Waleed</t>
-  </si>
-  <si>
-    <t>علا احمد</t>
-  </si>
-  <si>
-    <t>Ola Ahmed</t>
-  </si>
-  <si>
-    <t>كشري هند الحي العاشر</t>
-  </si>
-  <si>
-    <t>شهد جلال</t>
-  </si>
-  <si>
-    <t>Shahd Galal</t>
-  </si>
-  <si>
-    <t>محمد جمال</t>
-  </si>
-  <si>
-    <t>Mohamed Gamal</t>
-  </si>
-  <si>
-    <t>منى صلاح</t>
-  </si>
-  <si>
-    <t>Mona Salah</t>
-  </si>
-  <si>
-    <t>مسجد السلام</t>
-  </si>
-  <si>
-    <t>رفيق منصور</t>
-  </si>
-  <si>
-    <t>Rafik Mansour</t>
+    <t>ياسر صلاح</t>
+  </si>
+  <si>
+    <t>Yasser Salah</t>
   </si>
 </sst>
 </file>
@@ -1611,10 +1521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G37"/>
+  <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1649,7 +1559,7 @@
     </row>
     <row r="2" ht="15.25" spans="2:7">
       <c r="B2" s="4">
-        <v>10338556</v>
+        <v>10340037</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1661,7 +1571,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="4">
-        <v>1157854510</v>
+        <v>1222717497</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -1669,7 +1579,7 @@
     </row>
     <row r="3" ht="15.25" spans="2:7">
       <c r="B3" s="4">
-        <v>10338571</v>
+        <v>10339930</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -1680,374 +1590,376 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4">
-        <v>1145031243</v>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="2:7">
       <c r="B4" s="4">
-        <v>10338564</v>
+        <v>10339936</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4">
-        <v>1550908996</v>
+        <v>1155027161</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="2:7">
       <c r="B5" s="4">
-        <v>10338569</v>
+        <v>10339931</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4">
-        <v>1009781057</v>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="2:7">
       <c r="B6" s="4">
-        <v>10338641</v>
+        <v>10340036</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1148102330</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="2:7">
       <c r="B7" s="4">
-        <v>10338663</v>
+        <v>10340059</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4">
-        <v>1021152244</v>
+        <v>1031273085</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="2:7">
       <c r="B8" s="4">
-        <v>10338570</v>
+        <v>10339927</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1000511380</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="2:7">
       <c r="B9" s="4">
-        <v>10338679</v>
+        <v>10340100</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1113276308</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="2:7">
       <c r="B10" s="4">
-        <v>10338551</v>
+        <v>10340061</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4">
-        <v>1065136845</v>
+        <v>1090653293</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="2:7">
       <c r="B11" s="4">
-        <v>10338544</v>
+        <v>10339951</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1225825526</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="2:7">
       <c r="B12" s="4">
-        <v>10338975</v>
+        <v>10340038</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4">
-        <v>1147658749</v>
+        <v>1093376062</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="2:7">
       <c r="B13" s="4">
-        <v>10338994</v>
+        <v>10340032</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1276419181</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="2:7">
       <c r="B14" s="4">
-        <v>10339030</v>
+        <v>10340033</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="4">
-        <v>1211662054</v>
+        <v>1147610172</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="2:7">
       <c r="B15" s="4">
-        <v>10325070</v>
+        <v>10339929</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="4">
-        <v>1010581714</v>
+        <v>1094992783</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="2:7">
       <c r="B16" s="4">
-        <v>10338986</v>
+        <v>10340064</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4">
-        <v>1153387787</v>
+        <v>1101650993</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="2:7">
       <c r="B17" s="4">
-        <v>10339015</v>
+        <v>10340035</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F17" s="4">
-        <v>1061064383</v>
+        <v>1067130712</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="2:7">
       <c r="B18" s="4">
-        <v>10339037</v>
+        <v>10339952</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F18" s="4">
-        <v>1207058893</v>
+        <v>1153248409</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="2:7">
       <c r="B19" s="4">
-        <v>10338961</v>
+        <v>10340040</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F19" s="4">
-        <v>1061060042</v>
+        <v>1129608136</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="2:7">
       <c r="B20" s="4">
-        <v>10339002</v>
+        <v>10339933</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F20" s="4">
-        <v>1147521823</v>
+        <v>1154188662</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="2:7">
       <c r="B21" s="4">
-        <v>10339016</v>
+        <v>10340080</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F21" s="4">
-        <v>1023287667</v>
+        <v>1099106116</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="2:7">
       <c r="B22" s="4">
-        <v>10338968</v>
+        <v>10340041</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>70</v>
@@ -2056,307 +1968,93 @@
         <v>71</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22" s="4">
-        <v>1098681448</v>
+        <v>1503620076</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="2:7">
       <c r="B23" s="4">
-        <v>10328651</v>
+        <v>10340081</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F23" s="4">
-        <v>1092130328</v>
+        <v>1100941482</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="2:7">
       <c r="B24" s="4">
-        <v>10339014</v>
+        <v>10339956</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="4">
-        <v>1157963451</v>
+        <v>1094685376</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="2:7">
       <c r="B25" s="4">
-        <v>10339029</v>
+        <v>10340097</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4">
-        <v>1118426148</v>
+        <v>1003545004</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="2:7">
       <c r="B26" s="4">
-        <v>10339012</v>
+        <v>10340058</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" s="4">
-        <v>1112201156</v>
+        <v>1012680394</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="2:7">
-      <c r="B27" s="4">
-        <v>10339243</v>
-      </c>
-      <c r="C27" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="2:7">
-      <c r="B28" s="4">
-        <v>10339011</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1095755809</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" ht="15.25" spans="2:7">
-      <c r="B29" s="4">
-        <v>10339010</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="2:7">
-      <c r="B30" s="4">
-        <v>10338966</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="2:7">
-      <c r="B31" s="4">
-        <v>10338999</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1127152431</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="2:7">
-      <c r="B32" s="4">
-        <v>10338972</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1021005623</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="2:7">
-      <c r="B33" s="4">
-        <v>10338964</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1143943782</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="2:7">
-      <c r="B34" s="4">
-        <v>10338973</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1061453502</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="2:7">
-      <c r="B35" s="4">
-        <v>10338959</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="2:7">
-      <c r="B36" s="4">
-        <v>10338960</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" ht="15.25" spans="2:7">
-      <c r="B37" s="4">
-        <v>10339003</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/New-ID-5th-Settelment.xlsx
+++ b/New-ID-5th-Settelment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -47,256 +47,214 @@
     <t>Name in English</t>
   </si>
   <si>
-    <t>فودافون</t>
+    <t>هايبر 1</t>
   </si>
   <si>
     <t>اكتوبر و زايد</t>
   </si>
   <si>
-    <t>محمد الخديوي</t>
-  </si>
-  <si>
-    <t>Muhammad Khedewy</t>
-  </si>
-  <si>
-    <t>ميدان الف مسكن</t>
+    <t>يوسف أحمد أحمد</t>
+  </si>
+  <si>
+    <t>Yousef Ahmed Ahmed</t>
+  </si>
+  <si>
+    <t>الف مسكن</t>
   </si>
   <si>
     <t>الزيتون و مصر الجديدة</t>
   </si>
   <si>
-    <t>ابراهيم الباشا</t>
-  </si>
-  <si>
-    <t>1024451185 / 1044477795</t>
-  </si>
-  <si>
-    <t>Ibrahim Elbasha</t>
-  </si>
-  <si>
-    <t>قسم الوايلي</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>محمد احمد</t>
-  </si>
-  <si>
-    <t>Mohamed Ahmed</t>
-  </si>
-  <si>
-    <t>معرض علاء الدين</t>
-  </si>
-  <si>
-    <t>نور محمد محمود</t>
-  </si>
-  <si>
-    <t>1004541764 / 1006021784</t>
-  </si>
-  <si>
-    <t>Nour Mohamed Mahmoud</t>
-  </si>
-  <si>
-    <t>كارفور العبور</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>بسنت سليم</t>
-  </si>
-  <si>
-    <t>Bassant Selim</t>
+    <t>هشام سيد</t>
+  </si>
+  <si>
+    <t>1028713805 / 1118004193</t>
+  </si>
+  <si>
+    <t>Hesham Sayed</t>
+  </si>
+  <si>
+    <t>الجراج</t>
+  </si>
+  <si>
+    <t>نور ماجد</t>
+  </si>
+  <si>
+    <t>Noor Majed</t>
+  </si>
+  <si>
+    <t>ميدان لبنان</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>احمد طارق</t>
+  </si>
+  <si>
+    <t>Ahmed Tarek</t>
   </si>
   <si>
     <t>عمر افندي</t>
   </si>
   <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>عبد الله عمرو فتحي</t>
-  </si>
-  <si>
-    <t>Abdallah Amr Fathy</t>
-  </si>
-  <si>
-    <t>كوبري الدقي</t>
-  </si>
-  <si>
-    <t>مصطفى عمرو</t>
-  </si>
-  <si>
-    <t>Mostafa Amr</t>
-  </si>
-  <si>
-    <t>السواح</t>
-  </si>
-  <si>
-    <t>حدائق القبة</t>
-  </si>
-  <si>
-    <t>فاطمة علي كامل</t>
-  </si>
-  <si>
-    <t>1151322263 / 1211489301</t>
-  </si>
-  <si>
-    <t>Fatma Ali Kamel</t>
-  </si>
-  <si>
-    <t>ولي العهد</t>
-  </si>
-  <si>
-    <t>ندى موسى</t>
-  </si>
-  <si>
-    <t>Nada Mousa</t>
-  </si>
-  <si>
-    <t>مدخل حلوان الاتوستراد</t>
+    <t>محمد الهادي</t>
+  </si>
+  <si>
+    <t>1125736852 / 249903138792</t>
+  </si>
+  <si>
+    <t>Mohammed Elhadi</t>
+  </si>
+  <si>
+    <t>رايه</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>عبدالله مصطفى</t>
+  </si>
+  <si>
+    <t>Abdallah Mostafa</t>
+  </si>
+  <si>
+    <t>صالح صبحي</t>
   </si>
   <si>
     <t>حلوان و زهراء المعادي</t>
   </si>
   <si>
-    <t>بيتر ماهر</t>
-  </si>
-  <si>
-    <t>Peter Maher</t>
-  </si>
-  <si>
-    <t>قليوب</t>
+    <t>عبدالله محمد</t>
+  </si>
+  <si>
+    <t>1127035876 / 1122805999</t>
+  </si>
+  <si>
+    <t>Abdalla Mohamed</t>
+  </si>
+  <si>
+    <t>مهاب محمد فتحي</t>
+  </si>
+  <si>
+    <t>Mohab Mohamed Fathy</t>
+  </si>
+  <si>
+    <t>سلم البارون</t>
+  </si>
+  <si>
+    <t>سارة الفاروق</t>
+  </si>
+  <si>
+    <t>1208357712 / +249121641385</t>
+  </si>
+  <si>
+    <t>Sara Al-Farooq</t>
+  </si>
+  <si>
+    <t>طلعة قليوب</t>
   </si>
   <si>
     <t>دائري</t>
   </si>
   <si>
-    <t>عبدالرحمن ايهاب</t>
-  </si>
-  <si>
-    <t>Abdulrahman Ihab</t>
-  </si>
-  <si>
-    <t>المرج</t>
-  </si>
-  <si>
-    <t>فاطمة فوزي</t>
-  </si>
-  <si>
-    <t>Fatma fawzy</t>
-  </si>
-  <si>
-    <t>مازن عادل</t>
-  </si>
-  <si>
-    <t>Mazen Adel</t>
-  </si>
-  <si>
-    <t>مصطفى عبد المعز السيد</t>
-  </si>
-  <si>
-    <t>Mostafa Abd Elmoez Elsayed</t>
-  </si>
-  <si>
-    <t>مريوطية</t>
+    <t>محمود الطويل</t>
+  </si>
+  <si>
+    <t>1206652174/1033091998</t>
+  </si>
+  <si>
+    <t>Mahmoud Eltaweel</t>
+  </si>
+  <si>
+    <t>السلام</t>
+  </si>
+  <si>
+    <t>محمد مصطفى</t>
+  </si>
+  <si>
+    <t>Mohamed Mostafa</t>
+  </si>
+  <si>
+    <t>طلعه السلام</t>
+  </si>
+  <si>
+    <t>ندى محمد</t>
+  </si>
+  <si>
+    <t>Nada Muhammed</t>
+  </si>
+  <si>
+    <t>ياسمين شلبى</t>
+  </si>
+  <si>
+    <t>Yasmeen Shalaby</t>
+  </si>
+  <si>
+    <t>الخلفاوي</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>مارلين نبيل</t>
+  </si>
+  <si>
+    <t>Marleen Nabil</t>
+  </si>
+  <si>
+    <t>التوحيد و النور</t>
+  </si>
+  <si>
+    <t>ميار محجوب</t>
+  </si>
+  <si>
+    <t>Mayar Mahgoub</t>
+  </si>
+  <si>
+    <t>العشرين</t>
   </si>
   <si>
     <t>فيصل</t>
   </si>
   <si>
-    <t>اسلام ابراهيم عبد الرازق</t>
-  </si>
-  <si>
-    <t>Islam Ibrahim Abdelrazig</t>
-  </si>
-  <si>
-    <t>العشرين</t>
-  </si>
-  <si>
-    <t>مروان محمد</t>
-  </si>
-  <si>
-    <t>Marawan Mohamed</t>
-  </si>
-  <si>
-    <t>منة علي محمد سمير</t>
-  </si>
-  <si>
-    <t>Menna Ali Mohamed Samir</t>
-  </si>
-  <si>
-    <t>عمر مدبولي</t>
-  </si>
-  <si>
-    <t>Omar Madboly</t>
-  </si>
-  <si>
-    <t>سمير علي محمد سمير</t>
-  </si>
-  <si>
-    <t>Samir Ali Mohamed Samir</t>
-  </si>
-  <si>
-    <t>الغاز</t>
-  </si>
-  <si>
-    <t>م - الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>أيمن صالح</t>
-  </si>
-  <si>
-    <t>Ayman Saleh</t>
-  </si>
-  <si>
-    <t>ندى عرب</t>
-  </si>
-  <si>
-    <t>Nadaa Arab</t>
-  </si>
-  <si>
-    <t>اول مكرم</t>
+    <t>أحمد بابكر حسن باسعيد</t>
+  </si>
+  <si>
+    <t>249128292508 / 1126104899</t>
+  </si>
+  <si>
+    <t>Ahmed Babiker Hassan Basaeed</t>
+  </si>
+  <si>
+    <t>المريوطية</t>
+  </si>
+  <si>
+    <t>شهد حسن</t>
+  </si>
+  <si>
+    <t>Shahd Hassan</t>
+  </si>
+  <si>
+    <t>مسجد السلام</t>
   </si>
   <si>
     <t>مدينة نصر</t>
   </si>
   <si>
-    <t>عبدالله سميح</t>
-  </si>
-  <si>
-    <t>Abdallah Sameeh</t>
-  </si>
-  <si>
-    <t>كشري هند الحي العاشر</t>
-  </si>
-  <si>
-    <t>مي طاهر</t>
-  </si>
-  <si>
-    <t>Mai Taher</t>
-  </si>
-  <si>
-    <t>المحكمة الدستورية</t>
-  </si>
-  <si>
-    <t>ي - المعادي</t>
-  </si>
-  <si>
-    <t>مصطفى المنشاوي</t>
-  </si>
-  <si>
-    <t>Mustafa Elmenshawy</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>ياسر صلاح</t>
-  </si>
-  <si>
-    <t>Yasser Salah</t>
+    <t>معاب ياسين</t>
+  </si>
+  <si>
+    <t>Maab Yassin</t>
+  </si>
+  <si>
+    <t>؟</t>
+  </si>
+  <si>
+    <t>عفاف عبدالله يوسف</t>
+  </si>
+  <si>
+    <t>Afaf Abdallah Youssef</t>
   </si>
 </sst>
 </file>
@@ -1521,10 +1479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G26"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1559,7 +1517,7 @@
     </row>
     <row r="2" ht="15.25" spans="2:7">
       <c r="B2" s="4">
-        <v>10340037</v>
+        <v>10340563</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1571,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="4">
-        <v>1222717497</v>
+        <v>1001767650</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -1579,7 +1537,7 @@
     </row>
     <row r="3" ht="15.25" spans="2:7">
       <c r="B3" s="4">
-        <v>10339930</v>
+        <v>10340656</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -1599,159 +1557,159 @@
     </row>
     <row r="4" ht="15.25" spans="2:7">
       <c r="B4" s="4">
-        <v>10339936</v>
+        <v>10340583</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4">
+        <v>1016023469</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1155027161</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="2:7">
       <c r="B5" s="4">
-        <v>10339931</v>
+        <v>10340580</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="4">
+        <v>1150768786</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="2:7">
       <c r="B6" s="4">
-        <v>10340036</v>
+        <v>10340564</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1148102330</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="2:7">
       <c r="B7" s="4">
-        <v>10340059</v>
+        <v>10340644</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4">
+        <v>1024199162</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1031273085</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="2:7">
       <c r="B8" s="4">
-        <v>10339927</v>
+        <v>10340584</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4">
-        <v>1000511380</v>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="2:7">
       <c r="B9" s="4">
-        <v>10340100</v>
+        <v>10340643</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4">
+        <v>1064510557</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="2:7">
       <c r="B10" s="4">
-        <v>10340061</v>
+        <v>10340571</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1090653293</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="2:7">
       <c r="B11" s="4">
-        <v>10339951</v>
+        <v>10340726</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1225825526</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>45</v>
@@ -1759,99 +1717,99 @@
     </row>
     <row r="12" ht="15.25" spans="2:7">
       <c r="B12" s="4">
-        <v>10340038</v>
+        <v>10340567</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4">
+        <v>1017020017</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1093376062</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="2:7">
       <c r="B13" s="4">
-        <v>10340032</v>
+        <v>10340648</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4">
+        <v>1006479307</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1276419181</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="2:7">
       <c r="B14" s="4">
-        <v>10340033</v>
+        <v>10340645</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1285452195</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1147610172</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="2:7">
       <c r="B15" s="4">
-        <v>10339929</v>
+        <v>10340585</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="4">
-        <v>1094992783</v>
+        <v>1204983698</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="2:7">
       <c r="B16" s="4">
-        <v>10340064</v>
+        <v>10340639</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="4">
-        <v>1101650993</v>
+        <v>1273512059</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>60</v>
@@ -1859,202 +1817,80 @@
     </row>
     <row r="17" ht="15.25" spans="2:7">
       <c r="B17" s="4">
-        <v>10340035</v>
+        <v>10340566</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1067130712</v>
+        <v>63</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="2:7">
       <c r="B18" s="4">
-        <v>10339952</v>
+        <v>10340578</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F18" s="4">
-        <v>1153248409</v>
+        <v>1157113477</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="2:7">
       <c r="B19" s="4">
-        <v>10340040</v>
+        <v>10340665</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F19" s="4">
-        <v>1129608136</v>
+        <v>1063538482</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="2:7">
       <c r="B20" s="4">
-        <v>10339933</v>
+        <v>10340558</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1154188662</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="2:7">
-      <c r="B21" s="4">
-        <v>10340080</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1099106116</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="2:7">
-      <c r="B22" s="4">
-        <v>10340041</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1503620076</v>
-      </c>
-      <c r="G22" s="4" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="2:7">
-      <c r="B23" s="4">
-        <v>10340081</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1100941482</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="2:7">
-      <c r="B24" s="4">
-        <v>10339956</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1094685376</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="2:7">
-      <c r="B25" s="4">
-        <v>10340097</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1003545004</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="2:7">
-      <c r="B26" s="4">
-        <v>10340058</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1012680394</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/New-ID-5th-Settelment.xlsx
+++ b/New-ID-5th-Settelment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -47,214 +47,193 @@
     <t>Name in English</t>
   </si>
   <si>
-    <t>هايبر 1</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>يوسف أحمد أحمد</t>
-  </si>
-  <si>
-    <t>Yousef Ahmed Ahmed</t>
-  </si>
-  <si>
-    <t>الف مسكن</t>
+    <t>طلعة قليوب</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>أحمد عبد التواب صقر</t>
+  </si>
+  <si>
+    <t>Ahmed Abdeltawab Sakr</t>
+  </si>
+  <si>
+    <t>سلم البارون</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>بدور فاروق</t>
+  </si>
+  <si>
+    <t>Budoor Farouk</t>
+  </si>
+  <si>
+    <t>؟</t>
+  </si>
+  <si>
+    <t>ندى أسماه أحمد عثمان</t>
+  </si>
+  <si>
+    <t>Nada Asmah Ahmed Othman</t>
+  </si>
+  <si>
+    <t>اربيلا</t>
+  </si>
+  <si>
+    <t>م - الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>هدى سيد</t>
+  </si>
+  <si>
+    <t>Hoda Sayed</t>
+  </si>
+  <si>
+    <t>اكادمية السادات</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>ندى فاروق</t>
+  </si>
+  <si>
+    <t>Nada Farouk</t>
+  </si>
+  <si>
+    <t>الابيض اول فيصل</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>سعيد رفعت</t>
+  </si>
+  <si>
+    <t>Saeed Refaat</t>
+  </si>
+  <si>
+    <t>الحي العاشر</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>شريف عرفة أنور</t>
+  </si>
+  <si>
+    <t>Sherif Arafa Anwer</t>
+  </si>
+  <si>
+    <t>الخلفاوي</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>سلسبيل مازن</t>
+  </si>
+  <si>
+    <t>Salsabeel Mazen</t>
+  </si>
+  <si>
+    <t>الطوابق</t>
+  </si>
+  <si>
+    <t>زياد ابوزيد</t>
+  </si>
+  <si>
+    <t>Zeyad Abuzeid</t>
+  </si>
+  <si>
+    <t>المحكمة الدستورية</t>
+  </si>
+  <si>
+    <t>رضا ايهاب</t>
+  </si>
+  <si>
+    <t>Rida Ihab</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>صافيناز نصحي</t>
+  </si>
+  <si>
+    <t>Safinaz Nosshy</t>
+  </si>
+  <si>
+    <t>كشري هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>سجود حبيب</t>
+  </si>
+  <si>
+    <t>Sujood Habib</t>
+  </si>
+  <si>
+    <t>فيفيان فيكتور فايز جاد الله</t>
+  </si>
+  <si>
+    <t>Vevian Victor Fayez Gadallah</t>
+  </si>
+  <si>
+    <t>كشك اللحمة</t>
+  </si>
+  <si>
+    <t>و - الشروق</t>
+  </si>
+  <si>
+    <t>عمر شريف</t>
+  </si>
+  <si>
+    <t>Omar Sherif</t>
+  </si>
+  <si>
+    <t>تبيان ياسر</t>
+  </si>
+  <si>
+    <t>Tibyan Yassir</t>
+  </si>
+  <si>
+    <t>مريوطية</t>
+  </si>
+  <si>
+    <t>أحمد عاصم</t>
+  </si>
+  <si>
+    <t>Ahmed Aasem</t>
+  </si>
+  <si>
+    <t>معرض علاء الدين</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>نون خالد</t>
+  </si>
+  <si>
+    <t>Noon Khalid</t>
+  </si>
+  <si>
+    <t>ميدان الف مسكن</t>
   </si>
   <si>
     <t>الزيتون و مصر الجديدة</t>
   </si>
   <si>
-    <t>هشام سيد</t>
-  </si>
-  <si>
-    <t>1028713805 / 1118004193</t>
-  </si>
-  <si>
-    <t>Hesham Sayed</t>
-  </si>
-  <si>
-    <t>الجراج</t>
-  </si>
-  <si>
-    <t>نور ماجد</t>
-  </si>
-  <si>
-    <t>Noor Majed</t>
-  </si>
-  <si>
-    <t>ميدان لبنان</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>احمد طارق</t>
-  </si>
-  <si>
-    <t>Ahmed Tarek</t>
-  </si>
-  <si>
-    <t>عمر افندي</t>
-  </si>
-  <si>
-    <t>محمد الهادي</t>
-  </si>
-  <si>
-    <t>1125736852 / 249903138792</t>
-  </si>
-  <si>
-    <t>Mohammed Elhadi</t>
-  </si>
-  <si>
-    <t>رايه</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>عبدالله مصطفى</t>
-  </si>
-  <si>
-    <t>Abdallah Mostafa</t>
-  </si>
-  <si>
-    <t>صالح صبحي</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبدالله محمد</t>
-  </si>
-  <si>
-    <t>1127035876 / 1122805999</t>
-  </si>
-  <si>
-    <t>Abdalla Mohamed</t>
-  </si>
-  <si>
-    <t>مهاب محمد فتحي</t>
-  </si>
-  <si>
-    <t>Mohab Mohamed Fathy</t>
-  </si>
-  <si>
-    <t>سلم البارون</t>
-  </si>
-  <si>
-    <t>سارة الفاروق</t>
-  </si>
-  <si>
-    <t>1208357712 / +249121641385</t>
-  </si>
-  <si>
-    <t>Sara Al-Farooq</t>
-  </si>
-  <si>
-    <t>طلعة قليوب</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>محمود الطويل</t>
-  </si>
-  <si>
-    <t>1206652174/1033091998</t>
-  </si>
-  <si>
-    <t>Mahmoud Eltaweel</t>
-  </si>
-  <si>
-    <t>السلام</t>
-  </si>
-  <si>
-    <t>محمد مصطفى</t>
-  </si>
-  <si>
-    <t>Mohamed Mostafa</t>
-  </si>
-  <si>
-    <t>طلعه السلام</t>
-  </si>
-  <si>
-    <t>ندى محمد</t>
-  </si>
-  <si>
-    <t>Nada Muhammed</t>
-  </si>
-  <si>
-    <t>ياسمين شلبى</t>
-  </si>
-  <si>
-    <t>Yasmeen Shalaby</t>
-  </si>
-  <si>
-    <t>الخلفاوي</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>مارلين نبيل</t>
-  </si>
-  <si>
-    <t>Marleen Nabil</t>
-  </si>
-  <si>
-    <t>التوحيد و النور</t>
-  </si>
-  <si>
-    <t>ميار محجوب</t>
-  </si>
-  <si>
-    <t>Mayar Mahgoub</t>
-  </si>
-  <si>
-    <t>العشرين</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>أحمد بابكر حسن باسعيد</t>
-  </si>
-  <si>
-    <t>249128292508 / 1126104899</t>
-  </si>
-  <si>
-    <t>Ahmed Babiker Hassan Basaeed</t>
-  </si>
-  <si>
-    <t>المريوطية</t>
-  </si>
-  <si>
-    <t>شهد حسن</t>
-  </si>
-  <si>
-    <t>Shahd Hassan</t>
-  </si>
-  <si>
-    <t>مسجد السلام</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>معاب ياسين</t>
-  </si>
-  <si>
-    <t>Maab Yassin</t>
-  </si>
-  <si>
-    <t>؟</t>
-  </si>
-  <si>
-    <t>عفاف عبدالله يوسف</t>
-  </si>
-  <si>
-    <t>Afaf Abdallah Youssef</t>
+    <t>مروان شفيق</t>
+  </si>
+  <si>
+    <t>Marawan Shafik</t>
   </si>
 </sst>
 </file>
@@ -1479,10 +1458,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1517,7 +1496,7 @@
     </row>
     <row r="2" ht="15.25" spans="2:7">
       <c r="B2" s="4">
-        <v>10340563</v>
+        <v>10341227</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1529,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="4">
-        <v>1001767650</v>
+        <v>1093918072</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -1537,7 +1516,7 @@
     </row>
     <row r="3" ht="15.25" spans="2:7">
       <c r="B3" s="4">
-        <v>10340656</v>
+        <v>10341155</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -1548,128 +1527,126 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="4">
+        <v>1285324029</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="2:7">
       <c r="B4" s="4">
-        <v>10340583</v>
+        <v>10340419</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1016023469</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="2:7">
       <c r="B5" s="4">
-        <v>10340580</v>
+        <v>10341215</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4">
+        <v>1149048868</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1150768786</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="2:7">
       <c r="B6" s="4">
-        <v>10340564</v>
+        <v>10341179</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4">
+        <v>1117986332</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="2:7">
       <c r="B7" s="4">
-        <v>10340644</v>
+        <v>10341177</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4">
+        <v>1129684802</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1024199162</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="2:7">
       <c r="B8" s="4">
-        <v>10340584</v>
+        <v>10341212</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4">
+        <v>1149238079</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="2:7">
       <c r="B9" s="4">
-        <v>10340643</v>
+        <v>10341160</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="4">
-        <v>1064510557</v>
+        <v>1096872135</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>36</v>
@@ -1677,220 +1654,202 @@
     </row>
     <row r="10" ht="15.25" spans="2:7">
       <c r="B10" s="4">
-        <v>10340571</v>
+        <v>10341208</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="4">
+        <v>1098923529</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="2:7">
       <c r="B11" s="4">
-        <v>10340726</v>
+        <v>10341169</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4">
+        <v>1275556115</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="2:7">
       <c r="B12" s="4">
-        <v>10340567</v>
+        <v>10341162</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1277574476</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1017020017</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="2:7">
       <c r="B13" s="4">
-        <v>10340648</v>
+        <v>10341300</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1062921908</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1006479307</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="2:7">
       <c r="B14" s="4">
-        <v>10340645</v>
+        <v>10341301</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="4">
-        <v>1285452195</v>
+        <v>1152662567</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="2:7">
       <c r="B15" s="4">
-        <v>10340585</v>
+        <v>10341206</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4">
+        <v>1207447966</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1204983698</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="2:7">
       <c r="B16" s="4">
-        <v>10340639</v>
+        <v>10341221</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="4">
-        <v>1273512059</v>
+        <v>1515658710</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="2:7">
       <c r="B17" s="4">
-        <v>10340566</v>
+        <v>10341153</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1140727185</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="2:7">
       <c r="B18" s="4">
-        <v>10340578</v>
+        <v>10341217</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4">
-        <v>1157113477</v>
+        <v>1558817731</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="2:7">
       <c r="B19" s="4">
-        <v>10340665</v>
+        <v>10341185</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F19" s="4">
-        <v>1063538482</v>
+        <v>1552081974</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="2:7">
-      <c r="B20" s="4">
-        <v>10340558</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/New-ID-5th-Settelment.xlsx
+++ b/New-ID-5th-Settelment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -47,16 +47,70 @@
     <t>Name in English</t>
   </si>
   <si>
-    <t>طلعة قليوب</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>أحمد عبد التواب صقر</t>
-  </si>
-  <si>
-    <t>Ahmed Abdeltawab Sakr</t>
+    <t>مستشفى احمد ماهر</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>عمار احمد</t>
+  </si>
+  <si>
+    <t>Amar Ahmed</t>
+  </si>
+  <si>
+    <t>ميدان الف مسكن</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>بيشوي نادي</t>
+  </si>
+  <si>
+    <t>Beshoy Nady</t>
+  </si>
+  <si>
+    <t>الجراج</t>
+  </si>
+  <si>
+    <t>محمد عمر احمد</t>
+  </si>
+  <si>
+    <t>Mohamed Omar Ahmed</t>
+  </si>
+  <si>
+    <t>بوابة 3</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>علاء محمد الامين</t>
+  </si>
+  <si>
+    <t>Alaa Mohamed Al-Amin</t>
+  </si>
+  <si>
+    <t>بوابه حورس</t>
+  </si>
+  <si>
+    <t>مصطفى طارق</t>
+  </si>
+  <si>
+    <t>Mustafa Tarik</t>
+  </si>
+  <si>
+    <t>بوابة 1</t>
+  </si>
+  <si>
+    <t>ريان طارق</t>
+  </si>
+  <si>
+    <t>1505323984 / 249125010078</t>
+  </si>
+  <si>
+    <t>Rayan Tareq</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -65,175 +119,157 @@
     <t>حلوان و زهراء المعادي</t>
   </si>
   <si>
-    <t>بدور فاروق</t>
-  </si>
-  <si>
-    <t>Budoor Farouk</t>
-  </si>
-  <si>
-    <t>؟</t>
-  </si>
-  <si>
-    <t>ندى أسماه أحمد عثمان</t>
-  </si>
-  <si>
-    <t>Nada Asmah Ahmed Othman</t>
-  </si>
-  <si>
-    <t>اربيلا</t>
+    <t>عمرو اشرف</t>
+  </si>
+  <si>
+    <t>Amr Ashraf</t>
+  </si>
+  <si>
+    <t>الخلفاوي</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>إسراء عادل</t>
+  </si>
+  <si>
+    <t>Esraa Adel</t>
+  </si>
+  <si>
+    <t>الابيض اول فيصل</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>عبد الرحمن ادهم</t>
+  </si>
+  <si>
+    <t>Abdelrahman Adham</t>
+  </si>
+  <si>
+    <t>مريوطية</t>
+  </si>
+  <si>
+    <t>مروان خطاب</t>
+  </si>
+  <si>
+    <t>1023829519 / 1158977050 WPP</t>
+  </si>
+  <si>
+    <t>Marawan Khatab</t>
+  </si>
+  <si>
+    <t>الطوابق</t>
+  </si>
+  <si>
+    <t>عمير ابراهيم</t>
+  </si>
+  <si>
+    <t>1123936322//1515953462//97466050986</t>
+  </si>
+  <si>
+    <t>Omer Ibrahim</t>
+  </si>
+  <si>
+    <t>التعاون</t>
+  </si>
+  <si>
+    <t>سماح محجوب صالح</t>
+  </si>
+  <si>
+    <t>1554232307 / 249913279077</t>
+  </si>
+  <si>
+    <t>Samah Mahgoub Salih</t>
+  </si>
+  <si>
+    <t>الغاز</t>
   </si>
   <si>
     <t>م - الرحاب و التجمع</t>
   </si>
   <si>
-    <t>هدى سيد</t>
-  </si>
-  <si>
-    <t>Hoda Sayed</t>
-  </si>
-  <si>
-    <t>اكادمية السادات</t>
-  </si>
-  <si>
-    <t>ي - المعادي</t>
-  </si>
-  <si>
-    <t>ندى فاروق</t>
-  </si>
-  <si>
-    <t>Nada Farouk</t>
-  </si>
-  <si>
-    <t>الابيض اول فيصل</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>سعيد رفعت</t>
-  </si>
-  <si>
-    <t>Saeed Refaat</t>
-  </si>
-  <si>
-    <t>الحي العاشر</t>
+    <t>بدوي ابراهيم</t>
+  </si>
+  <si>
+    <t>Badawy Ibrahim</t>
+  </si>
+  <si>
+    <t>دانا البرقوني</t>
+  </si>
+  <si>
+    <t>Dana elbarqouny</t>
+  </si>
+  <si>
+    <t>اول مكرم</t>
   </si>
   <si>
     <t>مدينة نصر</t>
   </si>
   <si>
-    <t>شريف عرفة أنور</t>
-  </si>
-  <si>
-    <t>Sherif Arafa Anwer</t>
-  </si>
-  <si>
-    <t>الخلفاوي</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>سلسبيل مازن</t>
-  </si>
-  <si>
-    <t>Salsabeel Mazen</t>
-  </si>
-  <si>
-    <t>الطوابق</t>
-  </si>
-  <si>
-    <t>زياد ابوزيد</t>
-  </si>
-  <si>
-    <t>Zeyad Abuzeid</t>
-  </si>
-  <si>
-    <t>المحكمة الدستورية</t>
-  </si>
-  <si>
-    <t>رضا ايهاب</t>
-  </si>
-  <si>
-    <t>Rida Ihab</t>
-  </si>
-  <si>
-    <t>كارفور العبور</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>صافيناز نصحي</t>
-  </si>
-  <si>
-    <t>Safinaz Nosshy</t>
-  </si>
-  <si>
-    <t>كشري هند الحي العاشر</t>
-  </si>
-  <si>
-    <t>سجود حبيب</t>
-  </si>
-  <si>
-    <t>Sujood Habib</t>
-  </si>
-  <si>
-    <t>فيفيان فيكتور فايز جاد الله</t>
-  </si>
-  <si>
-    <t>Vevian Victor Fayez Gadallah</t>
-  </si>
-  <si>
-    <t>كشك اللحمة</t>
+    <t>عبد الرحمن حسني</t>
+  </si>
+  <si>
+    <t>Abdelrahman Hosny</t>
+  </si>
+  <si>
+    <t>عبد الرحمن شمس الدين</t>
+  </si>
+  <si>
+    <t>Abdelrahman Shams Aldeen</t>
+  </si>
+  <si>
+    <t>ميدان رابعة</t>
+  </si>
+  <si>
+    <t>منة الله أحمد</t>
+  </si>
+  <si>
+    <t>Menna Allah Ahmed</t>
+  </si>
+  <si>
+    <t>كشك اللحمه</t>
   </si>
   <si>
     <t>و - الشروق</t>
   </si>
   <si>
-    <t>عمر شريف</t>
-  </si>
-  <si>
-    <t>Omar Sherif</t>
-  </si>
-  <si>
-    <t>تبيان ياسر</t>
-  </si>
-  <si>
-    <t>Tibyan Yassir</t>
-  </si>
-  <si>
-    <t>مريوطية</t>
-  </si>
-  <si>
-    <t>أحمد عاصم</t>
-  </si>
-  <si>
-    <t>Ahmed Aasem</t>
-  </si>
-  <si>
-    <t>معرض علاء الدين</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>نون خالد</t>
-  </si>
-  <si>
-    <t>Noon Khalid</t>
-  </si>
-  <si>
-    <t>ميدان الف مسكن</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>مروان شفيق</t>
-  </si>
-  <si>
-    <t>Marawan Shafik</t>
+    <t>احمد عيد</t>
+  </si>
+  <si>
+    <t>1007087151 / 962777770625</t>
+  </si>
+  <si>
+    <t>Ahmed Eid</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>مريان سليمان</t>
+  </si>
+  <si>
+    <t>Marian Soliman</t>
+  </si>
+  <si>
+    <t>مروان حنفي</t>
+  </si>
+  <si>
+    <t>Marwan Hanafy</t>
+  </si>
+  <si>
+    <t>رنا هلال</t>
+  </si>
+  <si>
+    <t>Rana Helal</t>
+  </si>
+  <si>
+    <t>سعد عبدالنبي</t>
+  </si>
+  <si>
+    <t>Saad Abdulnabi</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1494,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1496,7 +1532,7 @@
     </row>
     <row r="2" ht="15.25" spans="2:7">
       <c r="B2" s="4">
-        <v>10341227</v>
+        <v>10341791</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1508,7 +1544,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="4">
-        <v>1093918072</v>
+        <v>1155600468</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -1516,7 +1552,7 @@
     </row>
     <row r="3" ht="15.25" spans="2:7">
       <c r="B3" s="4">
-        <v>10341155</v>
+        <v>10341794</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -1528,7 +1564,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>1285324029</v>
+        <v>1121237153</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -1536,25 +1572,27 @@
     </row>
     <row r="4" ht="15.25" spans="2:7">
       <c r="B4" s="4">
-        <v>10340419</v>
+        <v>10341792</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>1104749534</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="2:7">
       <c r="B5" s="4">
-        <v>10341215</v>
+        <v>10341880</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
@@ -1566,7 +1604,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="4">
-        <v>1149048868</v>
+        <v>1152061157</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>20</v>
@@ -1574,99 +1612,99 @@
     </row>
     <row r="6" ht="15.25" spans="2:7">
       <c r="B6" s="4">
-        <v>10341179</v>
+        <v>10341837</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4">
+        <v>1271920902</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1117986332</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="2:7">
       <c r="B7" s="4">
-        <v>10341177</v>
+        <v>10341883</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1129684802</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="2:7">
       <c r="B8" s="4">
-        <v>10341212</v>
+        <v>10341784</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4">
+        <v>1013884014</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1149238079</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="2:7">
       <c r="B9" s="4">
-        <v>10341160</v>
+        <v>10341787</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4">
+        <v>1029176161</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1096872135</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="2:7">
       <c r="B10" s="4">
-        <v>10341208</v>
+        <v>10341801</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="4">
-        <v>1098923529</v>
+        <v>1021742075</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>39</v>
@@ -1674,87 +1712,87 @@
     </row>
     <row r="11" ht="15.25" spans="2:7">
       <c r="B11" s="4">
-        <v>10341169</v>
+        <v>10341836</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4">
-        <v>1275556115</v>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="2:7">
       <c r="B12" s="4">
-        <v>10341162</v>
+        <v>10341833</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="4">
-        <v>1277574476</v>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="2:7">
       <c r="B13" s="4">
-        <v>10341300</v>
+        <v>10341839</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1062921908</v>
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="2:7">
       <c r="B14" s="4">
-        <v>10341301</v>
+        <v>10341799</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4">
-        <v>1152662567</v>
+        <v>1000534263</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="2:7">
       <c r="B15" s="4">
-        <v>10341206</v>
+        <v>10341798</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>52</v>
@@ -1763,93 +1801,169 @@
         <v>53</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="4">
-        <v>1207447966</v>
+        <v>1152255932</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="2:7">
       <c r="B16" s="4">
-        <v>10341221</v>
+        <v>10341807</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F16" s="4">
-        <v>1515658710</v>
+        <v>1020090701</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="2:7">
       <c r="B17" s="4">
-        <v>10341153</v>
+        <v>10341878</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F17" s="4">
-        <v>1140727185</v>
+        <v>1098376442</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="2:7">
       <c r="B18" s="4">
-        <v>10341217</v>
+        <v>10341802</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18" s="4">
-        <v>1558817731</v>
+        <v>1116092120</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="2:7">
       <c r="B19" s="4">
-        <v>10341185</v>
+        <v>10341886</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1552081974</v>
+        <v>69</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="2:7">
+      <c r="B20" s="4">
+        <v>10339919</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="2:7">
+      <c r="B21" s="4">
+        <v>10339767</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="2:7">
+      <c r="B22" s="4">
+        <v>10341800</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1150727151</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="2:7">
+      <c r="B23" s="4">
+        <v>10341782</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1505369674</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/New-ID-5th-Settelment.xlsx
+++ b/New-ID-5th-Settelment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -47,229 +47,349 @@
     <t>Name in English</t>
   </si>
   <si>
+    <t>المحكمة الدستورية</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>مصطفى جمال</t>
+  </si>
+  <si>
+    <t>Mostafa Gamal</t>
+  </si>
+  <si>
+    <t>كشك اللحمه</t>
+  </si>
+  <si>
+    <t>و - الشروق</t>
+  </si>
+  <si>
+    <t>ريم احمد</t>
+  </si>
+  <si>
+    <t>Reem Ahmed</t>
+  </si>
+  <si>
+    <t>ميدان رابعة</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>أماني الطيب</t>
+  </si>
+  <si>
+    <t>1507799127 WPP / 1559352026</t>
+  </si>
+  <si>
+    <t>Amani Eltayeb</t>
+  </si>
+  <si>
+    <t>مسجد السلام</t>
+  </si>
+  <si>
+    <t>محمود مصطفى</t>
+  </si>
+  <si>
+    <t>Mahmoud Mostafa</t>
+  </si>
+  <si>
+    <t>ارابيلا</t>
+  </si>
+  <si>
+    <t>م - الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>ندى نجد</t>
+  </si>
+  <si>
+    <t>Nada Nagd</t>
+  </si>
+  <si>
+    <t>بوابة 6</t>
+  </si>
+  <si>
+    <t>نهى صديق عقيل</t>
+  </si>
+  <si>
+    <t>Nuha Siddig Egail</t>
+  </si>
+  <si>
+    <t>العشرين</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>ابرار عباس</t>
+  </si>
+  <si>
+    <t>Abrar Abbas</t>
+  </si>
+  <si>
+    <t>الطالبية</t>
+  </si>
+  <si>
+    <t>أحمد ماهر أبو السعود</t>
+  </si>
+  <si>
+    <t>Ahmed Maher Abulsoud</t>
+  </si>
+  <si>
+    <t>الابيض اول فيصل</t>
+  </si>
+  <si>
+    <t>مصطفى اشرف</t>
+  </si>
+  <si>
+    <t>Mostafa Ashraf</t>
+  </si>
+  <si>
+    <t>الطوابق</t>
+  </si>
+  <si>
+    <t>طارق احمد السيسي</t>
+  </si>
+  <si>
+    <t>Tarek Ahmed Elsisi</t>
+  </si>
+  <si>
+    <t>وفاء عصام</t>
+  </si>
+  <si>
+    <t>Wafaa Essam</t>
+  </si>
+  <si>
+    <t>يحيى محمد</t>
+  </si>
+  <si>
+    <t>Yahia Mohamed</t>
+  </si>
+  <si>
+    <t>يوسف ناصر</t>
+  </si>
+  <si>
+    <t>Youssef Nasser</t>
+  </si>
+  <si>
+    <t>السلام</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>احمد عصام</t>
+  </si>
+  <si>
+    <t>Ahmed Essam</t>
+  </si>
+  <si>
+    <t>قليوب</t>
+  </si>
+  <si>
+    <t>علي وليد</t>
+  </si>
+  <si>
+    <t>Ali Waled</t>
+  </si>
+  <si>
+    <t>سلم البارون</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>محمد اسامة</t>
+  </si>
+  <si>
+    <t>Mohamed Osama</t>
+  </si>
+  <si>
+    <t>التوحيد و النور</t>
+  </si>
+  <si>
+    <t>ياسين هاني</t>
+  </si>
+  <si>
+    <t>Yassin Hany</t>
+  </si>
+  <si>
+    <t>بوابة تانية قديمة</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>نعمة ابراهيم</t>
+  </si>
+  <si>
+    <t>Niemat Ibrahim</t>
+  </si>
+  <si>
+    <t>ميدان العباسة</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>اشرقت نشأت</t>
+  </si>
+  <si>
+    <t>Ashrakat Nashaat</t>
+  </si>
+  <si>
+    <t>معرض علاء الدين</t>
+  </si>
+  <si>
+    <t>عمر محمد عبد السلام</t>
+  </si>
+  <si>
+    <t>Omar Mohamed Abdelsalam</t>
+  </si>
+  <si>
+    <t>فودافون</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>عبدالله محمد</t>
+  </si>
+  <si>
+    <t>Abdallah Mohamed</t>
+  </si>
+  <si>
+    <t>؟</t>
+  </si>
+  <si>
+    <t>فرحة محمد</t>
+  </si>
+  <si>
+    <t>Farha Mohamed</t>
+  </si>
+  <si>
+    <t>حاتم نصر</t>
+  </si>
+  <si>
+    <t>Hatem Nasr</t>
+  </si>
+  <si>
+    <t>رزان محمد</t>
+  </si>
+  <si>
+    <t>Razan Mohamed</t>
+  </si>
+  <si>
     <t>مستشفى احمد ماهر</t>
   </si>
   <si>
     <t>التحرير</t>
   </si>
   <si>
-    <t>عمار احمد</t>
-  </si>
-  <si>
-    <t>Amar Ahmed</t>
-  </si>
-  <si>
-    <t>ميدان الف مسكن</t>
+    <t>حسام هشام</t>
+  </si>
+  <si>
+    <t>Hossam Hisham</t>
+  </si>
+  <si>
+    <t>الجراج</t>
   </si>
   <si>
     <t>الزيتون و مصر الجديدة</t>
   </si>
   <si>
-    <t>بيشوي نادي</t>
-  </si>
-  <si>
-    <t>Beshoy Nady</t>
-  </si>
-  <si>
-    <t>الجراج</t>
-  </si>
-  <si>
-    <t>محمد عمر احمد</t>
-  </si>
-  <si>
-    <t>Mohamed Omar Ahmed</t>
-  </si>
-  <si>
-    <t>بوابة 3</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>علاء محمد الامين</t>
-  </si>
-  <si>
-    <t>Alaa Mohamed Al-Amin</t>
-  </si>
-  <si>
-    <t>بوابه حورس</t>
-  </si>
-  <si>
-    <t>مصطفى طارق</t>
-  </si>
-  <si>
-    <t>Mustafa Tarik</t>
+    <t>شروق محمد</t>
+  </si>
+  <si>
+    <t>1126959514/1044627441</t>
+  </si>
+  <si>
+    <t>Sherouk Mohamed</t>
+  </si>
+  <si>
+    <t>قسم الوايلي</t>
+  </si>
+  <si>
+    <t>ابراهيم بلال</t>
+  </si>
+  <si>
+    <t>Ibrahim Belal</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>منة الله أحمد</t>
+  </si>
+  <si>
+    <t>Mennatullah Ahmed</t>
+  </si>
+  <si>
+    <t>ميدان لبنان</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>ابراهيم ياسر</t>
+  </si>
+  <si>
+    <t>Ibrahim Yasser</t>
   </si>
   <si>
     <t>بوابة 1</t>
   </si>
   <si>
-    <t>ريان طارق</t>
-  </si>
-  <si>
-    <t>1505323984 / 249125010078</t>
-  </si>
-  <si>
-    <t>Rayan Tareq</t>
-  </si>
-  <si>
-    <t>سلم البارون</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عمرو اشرف</t>
-  </si>
-  <si>
-    <t>Amr Ashraf</t>
-  </si>
-  <si>
-    <t>الخلفاوي</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>إسراء عادل</t>
-  </si>
-  <si>
-    <t>Esraa Adel</t>
-  </si>
-  <si>
-    <t>الابيض اول فيصل</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>عبد الرحمن ادهم</t>
-  </si>
-  <si>
-    <t>Abdelrahman Adham</t>
-  </si>
-  <si>
-    <t>مريوطية</t>
-  </si>
-  <si>
-    <t>مروان خطاب</t>
-  </si>
-  <si>
-    <t>1023829519 / 1158977050 WPP</t>
-  </si>
-  <si>
-    <t>Marawan Khatab</t>
-  </si>
-  <si>
-    <t>الطوابق</t>
-  </si>
-  <si>
-    <t>عمير ابراهيم</t>
-  </si>
-  <si>
-    <t>1123936322//1515953462//97466050986</t>
-  </si>
-  <si>
-    <t>Omer Ibrahim</t>
-  </si>
-  <si>
-    <t>التعاون</t>
-  </si>
-  <si>
-    <t>سماح محجوب صالح</t>
-  </si>
-  <si>
-    <t>1554232307 / 249913279077</t>
-  </si>
-  <si>
-    <t>Samah Mahgoub Salih</t>
-  </si>
-  <si>
-    <t>الغاز</t>
-  </si>
-  <si>
-    <t>م - الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>بدوي ابراهيم</t>
-  </si>
-  <si>
-    <t>Badawy Ibrahim</t>
-  </si>
-  <si>
-    <t>دانا البرقوني</t>
-  </si>
-  <si>
-    <t>Dana elbarqouny</t>
-  </si>
-  <si>
-    <t>اول مكرم</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>عبد الرحمن حسني</t>
-  </si>
-  <si>
-    <t>Abdelrahman Hosny</t>
-  </si>
-  <si>
-    <t>عبد الرحمن شمس الدين</t>
-  </si>
-  <si>
-    <t>Abdelrahman Shams Aldeen</t>
-  </si>
-  <si>
-    <t>ميدان رابعة</t>
-  </si>
-  <si>
-    <t>منة الله أحمد</t>
-  </si>
-  <si>
-    <t>Menna Allah Ahmed</t>
-  </si>
-  <si>
-    <t>كشك اللحمه</t>
-  </si>
-  <si>
-    <t>و - الشروق</t>
-  </si>
-  <si>
-    <t>احمد عيد</t>
-  </si>
-  <si>
-    <t>1007087151 / 962777770625</t>
-  </si>
-  <si>
-    <t>Ahmed Eid</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>مريان سليمان</t>
-  </si>
-  <si>
-    <t>Marian Soliman</t>
-  </si>
-  <si>
-    <t>مروان حنفي</t>
-  </si>
-  <si>
-    <t>Marwan Hanafy</t>
-  </si>
-  <si>
-    <t>رنا هلال</t>
-  </si>
-  <si>
-    <t>Rana Helal</t>
-  </si>
-  <si>
-    <t>سعد عبدالنبي</t>
-  </si>
-  <si>
-    <t>Saad Abdulnabi</t>
+    <t>هاجر همام</t>
+  </si>
+  <si>
+    <t>Hagar Hammam</t>
+  </si>
+  <si>
+    <t>مدخل حلوان الاتوستراد</t>
+  </si>
+  <si>
+    <t>عبد الرحمن جمال</t>
+  </si>
+  <si>
+    <t>Abdelrahman Gamal</t>
+  </si>
+  <si>
+    <t>بهتيم</t>
+  </si>
+  <si>
+    <t>زهراء هشام</t>
+  </si>
+  <si>
+    <t>Zahraa Hesham</t>
+  </si>
+  <si>
+    <t>كشري هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>حسناء عبدالله</t>
+  </si>
+  <si>
+    <t>Hasnaa Abdullah</t>
+  </si>
+  <si>
+    <t>قاسم محمد</t>
+  </si>
+  <si>
+    <t>Kasem Mohamed</t>
+  </si>
+  <si>
+    <t>محمد حسن</t>
+  </si>
+  <si>
+    <t>1557351502/ 1008316736</t>
+  </si>
+  <si>
+    <t>Mohamed Hassan</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1614,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G23"/>
+  <dimension ref="B1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1532,7 +1652,7 @@
     </row>
     <row r="2" ht="15.25" spans="2:7">
       <c r="B2" s="4">
-        <v>10341791</v>
+        <v>10342538</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1544,7 +1664,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="4">
-        <v>1155600468</v>
+        <v>1155036605</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -1552,7 +1672,7 @@
     </row>
     <row r="3" ht="15.25" spans="2:7">
       <c r="B3" s="4">
-        <v>10341794</v>
+        <v>10342543</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -1564,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>1121237153</v>
+        <v>1503017315</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -1572,119 +1692,119 @@
     </row>
     <row r="4" ht="15.25" spans="2:7">
       <c r="B4" s="4">
-        <v>10341792</v>
+        <v>10342589</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1104749534</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="2:7">
       <c r="B5" s="4">
-        <v>10341880</v>
+        <v>10342600</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
-        <v>1152061157</v>
+        <v>1050882233</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="2:7">
       <c r="B6" s="4">
-        <v>10341837</v>
+        <v>10342535</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4">
-        <v>1271920902</v>
+        <v>1004594906</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="2:7">
       <c r="B7" s="4">
-        <v>10341883</v>
+        <v>10342586</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1152151913</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="2:7">
       <c r="B8" s="4">
-        <v>10341784</v>
+        <v>10341879</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4">
-        <v>1013884014</v>
+        <v>1103604661</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="2:7">
       <c r="B9" s="4">
-        <v>10341787</v>
+        <v>10342698</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="4">
-        <v>1029176161</v>
+        <v>1117338982</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>35</v>
@@ -1692,278 +1812,542 @@
     </row>
     <row r="10" ht="15.25" spans="2:7">
       <c r="B10" s="4">
-        <v>10341801</v>
+        <v>10342700</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4">
+        <v>1144119016</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1021742075</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="2:7">
       <c r="B11" s="4">
-        <v>10341836</v>
+        <v>10342712</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4">
+        <v>1143159790</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="2:7">
       <c r="B12" s="4">
-        <v>10341833</v>
+        <v>10342536</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1146683422</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="2:7">
       <c r="B13" s="4">
-        <v>10341839</v>
+        <v>10341002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1117299576</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="2:7">
       <c r="B14" s="4">
-        <v>10341799</v>
+        <v>10342713</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4">
-        <v>1000534263</v>
+        <v>1155948092</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="2:7">
       <c r="B15" s="4">
-        <v>10341798</v>
+        <v>10342702</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F15" s="4">
-        <v>1152255932</v>
+        <v>1060838031</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="2:7">
       <c r="B16" s="4">
-        <v>10341807</v>
+        <v>10342601</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4">
-        <v>1020090701</v>
+        <v>1205136480</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="2:7">
       <c r="B17" s="4">
-        <v>10341878</v>
+        <v>10342599</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1063707011</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1098376442</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="2:7">
       <c r="B18" s="4">
-        <v>10341802</v>
+        <v>10342540</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F18" s="4">
-        <v>1116092120</v>
+        <v>1226631133</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="2:7">
       <c r="B19" s="4">
-        <v>10341886</v>
+        <v>10342591</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1034644557</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="2:7">
       <c r="B20" s="4">
-        <v>10339919</v>
+        <v>10342602</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1069323958</v>
+      </c>
       <c r="G20" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="2:7">
       <c r="B21" s="4">
-        <v>10339767</v>
+        <v>10342542</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1158346563</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="2:7">
       <c r="B22" s="4">
-        <v>10341800</v>
+        <v>10342605</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4">
-        <v>1150727151</v>
+        <v>1557058135</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="2:7">
       <c r="B23" s="4">
-        <v>10341782</v>
+        <v>10342522</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1125261030</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="4">
-        <v>1505369674</v>
-      </c>
-      <c r="G23" s="4" t="s">
+    </row>
+    <row r="24" ht="15.25" spans="2:7">
+      <c r="B24" s="4">
+        <v>10342604</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>80</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1554313453</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="2:7">
+      <c r="B25" s="4">
+        <v>10342593</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1127251029</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="2:7">
+      <c r="B26" s="4">
+        <v>10341138</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1010368141</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="2:7">
+      <c r="B27" s="4">
+        <v>10341134</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="2:7">
+      <c r="B28" s="4">
+        <v>10319962</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1004496366</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="2:7">
+      <c r="B29" s="4">
+        <v>10341126</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1123518604</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="2:7">
+      <c r="B30" s="4">
+        <v>10341132</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1064855780</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="2:7">
+      <c r="B31" s="4">
+        <v>10341128</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1018950953</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="2:7">
+      <c r="B32" s="4">
+        <v>10319940</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1116915333</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="2:7">
+      <c r="B33" s="4">
+        <v>10341131</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1003492249</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="2:7">
+      <c r="B34" s="4">
+        <v>10341127</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1112750439</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="2:7">
+      <c r="B35" s="4">
+        <v>10341133</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1030878125</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="2:7">
+      <c r="B36" s="4">
+        <v>10341140</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/New-ID-5th-Settelment.xlsx
+++ b/New-ID-5th-Settelment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -47,586 +47,382 @@
     <t>Name in English</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>عزالدين سامي</t>
+  </si>
+  <si>
+    <t>ezzeldeen samy</t>
+  </si>
+  <si>
+    <t>سهيلة عاطف</t>
+  </si>
+  <si>
+    <t>Sohaila Atef</t>
+  </si>
+  <si>
+    <t>ميدان التحرير ابو سمرة</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>تبيان خالد</t>
+  </si>
+  <si>
+    <t>Tebyan khaled</t>
+  </si>
+  <si>
+    <t>قسم الوايلي</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>احمد هشام</t>
+  </si>
+  <si>
+    <t>Ahmed Hesham</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>نورهان رفيق</t>
+  </si>
+  <si>
+    <t>Nourhan Rafik</t>
+  </si>
+  <si>
+    <t>طلعه قليوب</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>محمد الجندى</t>
+  </si>
+  <si>
+    <t>Mohamed El genedy</t>
+  </si>
+  <si>
+    <t>البيني هرم</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>عبد الرحمن عشري</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ashry</t>
+  </si>
+  <si>
+    <t>المريوطية</t>
+  </si>
+  <si>
+    <t>مازن مصطفى</t>
+  </si>
+  <si>
+    <t>106066 8764</t>
+  </si>
+  <si>
+    <t>Mazen Mostafa</t>
+  </si>
+  <si>
+    <t>الابيض</t>
+  </si>
+  <si>
+    <t>محمد مجدي محمود</t>
+  </si>
+  <si>
+    <t>Mohamed Magdy Mahmoud</t>
+  </si>
+  <si>
+    <t>كريم بنونة</t>
+  </si>
+  <si>
+    <t>م - المقطم</t>
+  </si>
+  <si>
+    <t>زينة زكي</t>
+  </si>
+  <si>
+    <t>Zeina Ali</t>
+  </si>
+  <si>
+    <t>كشك اللحمه</t>
+  </si>
+  <si>
+    <t>و - الشروق</t>
+  </si>
+  <si>
+    <t>عمرو يوسف</t>
+  </si>
+  <si>
+    <t>Amr Youssef</t>
+  </si>
+  <si>
+    <t>وتر واي</t>
+  </si>
+  <si>
+    <t>م - الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>محمد أيمن</t>
+  </si>
+  <si>
+    <t>Mohamed Ayman</t>
+  </si>
+  <si>
+    <t>بوابة 6</t>
+  </si>
+  <si>
+    <t>مهند هاني</t>
+  </si>
+  <si>
+    <t>Mohannad Hani</t>
+  </si>
+  <si>
+    <t>بوابة 24</t>
+  </si>
+  <si>
+    <t>يوسف طارق</t>
+  </si>
+  <si>
+    <t>Youssef Tarek</t>
+  </si>
+  <si>
+    <t>كشري هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>محمود عبدالله علي</t>
+  </si>
+  <si>
+    <t>Mahmoud Abdullah Ali</t>
+  </si>
+  <si>
+    <t>ابن الحكم</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>لوكا اميل</t>
+  </si>
+  <si>
+    <t>Loka Emil</t>
+  </si>
+  <si>
+    <t>الغاز</t>
+  </si>
+  <si>
+    <t>نور الدين محمود</t>
+  </si>
+  <si>
+    <t>Nour Eldien Mahmoud</t>
+  </si>
+  <si>
     <t>بوابة 1</t>
   </si>
   <si>
     <t>و - مدينتي</t>
   </si>
   <si>
-    <t>احمد خالد</t>
-  </si>
-  <si>
-    <t>Ahmed Khaled</t>
-  </si>
-  <si>
-    <t>ميدان المحكمه</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>آية أحمد</t>
-  </si>
-  <si>
-    <t>Aya Ahmed</t>
-  </si>
-  <si>
-    <t>الابيض اول فيصل</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>بسمة حسني</t>
-  </si>
-  <si>
-    <t>Basma Hosny</t>
-  </si>
-  <si>
-    <t>مدخل معصرة الاتوستراد</t>
+    <t>منال كمبال</t>
+  </si>
+  <si>
+    <t>1031234093 / 97431182313</t>
+  </si>
+  <si>
+    <t>Manal Kambal</t>
+  </si>
+  <si>
+    <t>مريوطية</t>
+  </si>
+  <si>
+    <t>خالد عمر</t>
+  </si>
+  <si>
+    <t>Khalid Omer</t>
+  </si>
+  <si>
+    <t>الف مسكن</t>
+  </si>
+  <si>
+    <t>كاوا تشول</t>
+  </si>
+  <si>
+    <t>1505587246 / 1152868070</t>
+  </si>
+  <si>
+    <t>kawa chol</t>
+  </si>
+  <si>
+    <t>احمد سيف</t>
+  </si>
+  <si>
+    <t>Ahmed Saif</t>
+  </si>
+  <si>
+    <t>الجراج</t>
+  </si>
+  <si>
+    <t>امنية كمال</t>
+  </si>
+  <si>
+    <t>1507944711 WP / 1553516466</t>
+  </si>
+  <si>
+    <t>Omnia Kamal</t>
+  </si>
+  <si>
+    <t>يوسف حسن</t>
+  </si>
+  <si>
+    <t>Yousif Hassan</t>
+  </si>
+  <si>
+    <t>سلم صقر قريش</t>
   </si>
   <si>
     <t>حلوان و زهراء المعادي</t>
   </si>
   <si>
-    <t>اكرام عبد المنعم</t>
-  </si>
-  <si>
-    <t>Ekram abdulmonem</t>
-  </si>
-  <si>
-    <t>عمر افندي</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>حبيبة عادل</t>
-  </si>
-  <si>
-    <t>Habiba Adel</t>
-  </si>
-  <si>
-    <t>ميدان الف مسكن</t>
-  </si>
-  <si>
-    <t>لاما جعفر</t>
-  </si>
-  <si>
-    <t>Lama Gaffer</t>
-  </si>
-  <si>
-    <t>شمال طره كورنيش المعادي</t>
-  </si>
-  <si>
-    <t>ي - المعادي</t>
-  </si>
-  <si>
-    <t>مرام عبدالله</t>
-  </si>
-  <si>
-    <t>Maram Abdalla</t>
-  </si>
-  <si>
-    <t>كريم بنونة</t>
-  </si>
-  <si>
-    <t>م - المقطم</t>
-  </si>
-  <si>
-    <t>منى عبد العظيم</t>
-  </si>
-  <si>
-    <t>Mona Abdelazim</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>ندى عبد المعز</t>
-  </si>
-  <si>
-    <t>Nada Abdelmoez</t>
-  </si>
-  <si>
-    <t>بهتيم</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>أسامة أنور</t>
-  </si>
-  <si>
-    <t>Osama Anwar</t>
-  </si>
-  <si>
-    <t>رغد محمد</t>
-  </si>
-  <si>
-    <t>Raghad Mohamed</t>
-  </si>
-  <si>
-    <t>وتر واي</t>
-  </si>
-  <si>
-    <t>م - الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>سلمى محمد علي</t>
-  </si>
-  <si>
-    <t>Salma Mohamed Ali</t>
+    <t>مصطفى عبد الباسط</t>
+  </si>
+  <si>
+    <t>Mustafa Basta</t>
+  </si>
+  <si>
+    <t>جوري أمير فاروق عبدالعال</t>
+  </si>
+  <si>
+    <t>Jurey Ameer Farouq</t>
+  </si>
+  <si>
+    <t>محمد حكيم</t>
+  </si>
+  <si>
+    <t>Mohamed hakeem</t>
+  </si>
+  <si>
+    <t>محمد احمد</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed</t>
   </si>
   <si>
     <t>مسجد السلام</t>
   </si>
   <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>سيف وليد</t>
-  </si>
-  <si>
-    <t>Seif Waleed</t>
+    <t>مصعب صديق</t>
+  </si>
+  <si>
+    <t>Musaab Siddig</t>
+  </si>
+  <si>
+    <t>مؤمن صلاح</t>
+  </si>
+  <si>
+    <t>Moamen Salah</t>
   </si>
   <si>
     <t>اول مكرم</t>
   </si>
   <si>
-    <t>يسرا مبارك</t>
-  </si>
-  <si>
-    <t>Yousra Mubarak</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>احمد المنياوي</t>
-  </si>
-  <si>
-    <t>Ahmed Elmenawy</t>
-  </si>
-  <si>
-    <t>سلم صقر قريش</t>
-  </si>
-  <si>
-    <t>كريم علي احمد</t>
-  </si>
-  <si>
-    <t>1069370534 / 1114871034</t>
-  </si>
-  <si>
-    <t>Kareem Ali ahmed</t>
-  </si>
-  <si>
-    <t>كشري هند الحي العاشر</t>
-  </si>
-  <si>
-    <t>منيبة كرار</t>
-  </si>
-  <si>
-    <t>Muniba Karar</t>
-  </si>
-  <si>
-    <t>الجراج</t>
-  </si>
-  <si>
-    <t>دانيا الوليد عبد القادر</t>
-  </si>
-  <si>
-    <t>Dania Elwalid Abdulgdir</t>
-  </si>
-  <si>
-    <t>نور هشام</t>
-  </si>
-  <si>
-    <t>1069935066 / 1282029756</t>
-  </si>
-  <si>
-    <t>Nour Hisham</t>
-  </si>
-  <si>
-    <t>المحكمة</t>
-  </si>
-  <si>
-    <t>شريف نجيب</t>
-  </si>
-  <si>
-    <t>Sherif Naguib</t>
-  </si>
-  <si>
-    <t>ميدان ابن الحكم</t>
-  </si>
-  <si>
-    <t>زاهد صلاح الدين</t>
-  </si>
-  <si>
-    <t>Zahed Salaheldin</t>
-  </si>
-  <si>
-    <t>كارفور العبور</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>احمد حاتم</t>
-  </si>
-  <si>
-    <t>Hatem Ahmed</t>
+    <t>أحمد السيد علي أحمد</t>
+  </si>
+  <si>
+    <t>1556039554 / +249916848761</t>
+  </si>
+  <si>
+    <t>Ahmed Alsayed Ahmed</t>
   </si>
   <si>
     <t>سلم البارون</t>
   </si>
   <si>
-    <t>ادهم النبراوي</t>
-  </si>
-  <si>
-    <t>Adham Elnabarawi</t>
-  </si>
-  <si>
-    <t>ألوك مايوم</t>
-  </si>
-  <si>
-    <t>Aluk Mayom</t>
-  </si>
-  <si>
-    <t>تشول بول تشول</t>
-  </si>
-  <si>
-    <t>Chol Bol Chol</t>
-  </si>
-  <si>
-    <t>حازم دياب</t>
-  </si>
-  <si>
-    <t>Hazem Diab</t>
-  </si>
-  <si>
-    <t>مدخل حلوان الاتوستراد</t>
-  </si>
-  <si>
-    <t>ملاك محمد</t>
-  </si>
-  <si>
-    <t>Malak mohamed</t>
-  </si>
-  <si>
-    <t>صالح صبحي</t>
-  </si>
-  <si>
-    <t>ياسين عمرو</t>
-  </si>
-  <si>
-    <t>Yassin Amr</t>
-  </si>
-  <si>
-    <t>الغاز</t>
-  </si>
-  <si>
-    <t>حازم حسام</t>
-  </si>
-  <si>
-    <t>Hazem Hossam</t>
-  </si>
-  <si>
-    <t>محمد احمد</t>
-  </si>
-  <si>
-    <t>Mohamed Ahmed</t>
-  </si>
-  <si>
-    <t>WAX1</t>
-  </si>
-  <si>
-    <t>الجزيرة</t>
-  </si>
-  <si>
-    <t>عمر بكري</t>
-  </si>
-  <si>
-    <t>Omer Bakri</t>
-  </si>
-  <si>
-    <t>بوابة 13</t>
-  </si>
-  <si>
-    <t>يحيى لطفي</t>
-  </si>
-  <si>
-    <t>Yehia Lotfy</t>
-  </si>
-  <si>
-    <t>النافورة</t>
-  </si>
-  <si>
-    <t>محمد نور</t>
-  </si>
-  <si>
-    <t>1102858041/1124701660</t>
-  </si>
-  <si>
-    <t>Mohamed Nour</t>
-  </si>
-  <si>
-    <t>عبدالله اشرف</t>
-  </si>
-  <si>
-    <t>1044758200 / 249904396614</t>
-  </si>
-  <si>
-    <t>Abdalla Ashraf</t>
-  </si>
-  <si>
-    <t>احمد انطونيو</t>
-  </si>
-  <si>
-    <t>Ahmad Antonio</t>
-  </si>
-  <si>
-    <t>آية عاطف</t>
-  </si>
-  <si>
-    <t>Aya Atef</t>
-  </si>
-  <si>
-    <t>فاطمة الزهراء</t>
-  </si>
-  <si>
-    <t>Fatimah Azzahra</t>
-  </si>
-  <si>
-    <t>محمود البنداري</t>
-  </si>
-  <si>
-    <t>Mahmoud Elbendare</t>
-  </si>
-  <si>
-    <t>ريم نصر محمد</t>
-  </si>
-  <si>
-    <t>249900480866/1021818921</t>
-  </si>
-  <si>
-    <t>Reem Nasr Mohamed</t>
-  </si>
-  <si>
-    <t>طارق نصر محمد</t>
-  </si>
-  <si>
-    <t>Tarig Nasr Mohamed</t>
-  </si>
-  <si>
-    <t>كشك اللحمة</t>
-  </si>
-  <si>
-    <t>و - الشروق</t>
-  </si>
-  <si>
-    <t>احمد سيد</t>
-  </si>
-  <si>
-    <t>Ahmed Sayed</t>
-  </si>
-  <si>
-    <t>مصطفى عثمان</t>
-  </si>
-  <si>
-    <t>Mostafa Osman</t>
-  </si>
-  <si>
-    <t>احمد قرضاوي</t>
-  </si>
-  <si>
-    <t>Ahmed Kardawi</t>
-  </si>
-  <si>
-    <t>لينا طارق</t>
-  </si>
-  <si>
-    <t>1145783124/1124542582</t>
-  </si>
-  <si>
-    <t>Lina Tarig</t>
-  </si>
-  <si>
-    <t>رانيا عبد الرحمن</t>
-  </si>
-  <si>
-    <t>Rania Abdelrahman</t>
-  </si>
-  <si>
-    <t>مدخل بدر</t>
-  </si>
-  <si>
-    <t>ي - بدر</t>
-  </si>
-  <si>
-    <t>سجا عامر</t>
-  </si>
-  <si>
-    <t>Saga Amer</t>
-  </si>
-  <si>
-    <t>TAX3</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>احمد عبد المطلب</t>
-  </si>
-  <si>
-    <t>Ahmed Abdelmotaleb</t>
-  </si>
-  <si>
-    <t>TAX4</t>
-  </si>
-  <si>
-    <t>آية السيد</t>
-  </si>
-  <si>
-    <t>Aya elsayed</t>
-  </si>
-  <si>
-    <t>بسنت بهاء</t>
-  </si>
-  <si>
-    <t>Bassant Bahaa</t>
-  </si>
-  <si>
-    <t>رؤى أحمد</t>
-  </si>
-  <si>
-    <t>Roaa Ahmed</t>
-  </si>
-  <si>
-    <t>قسم الويلي</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>جانا مصلح</t>
-  </si>
-  <si>
-    <t>Jana mosleh</t>
-  </si>
-  <si>
-    <t>معرض علاء الدين</t>
-  </si>
-  <si>
-    <t>سما طارق</t>
-  </si>
-  <si>
-    <t>Sama Tarek</t>
-  </si>
-  <si>
-    <t>عبد الرحمن عادل</t>
-  </si>
-  <si>
-    <t>Abdelrahman Adel</t>
-  </si>
-  <si>
-    <t>TAX5</t>
-  </si>
-  <si>
-    <t>ولي العهد</t>
-  </si>
-  <si>
-    <t>حدائق القبة</t>
-  </si>
-  <si>
-    <t>كريمة أحمد</t>
-  </si>
-  <si>
-    <t>Kareema Ahmed</t>
-  </si>
-  <si>
-    <t>معاذ يوسف</t>
-  </si>
-  <si>
-    <t>Moaaz Youssef</t>
-  </si>
-  <si>
-    <t>احمد عمرو</t>
-  </si>
-  <si>
-    <t>Ahmed Amr</t>
-  </si>
-  <si>
-    <t>TAX6</t>
-  </si>
-  <si>
-    <t>أمل جاد</t>
-  </si>
-  <si>
-    <t>Aml Gad</t>
-  </si>
-  <si>
-    <t>TAX7</t>
-  </si>
-  <si>
-    <t>اسلام سيد</t>
-  </si>
-  <si>
-    <t>Islam Sayed</t>
-  </si>
-  <si>
-    <t>أسامة أيمن</t>
-  </si>
-  <si>
-    <t>Osama Ayman</t>
-  </si>
-  <si>
-    <t>TAX8</t>
-  </si>
-  <si>
-    <t>السلام</t>
-  </si>
-  <si>
-    <t>يوسف محمود</t>
-  </si>
-  <si>
-    <t>Yousef Mahmoud</t>
-  </si>
-  <si>
-    <t>التوحيد والنور</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>ليلى مجدي</t>
-  </si>
-  <si>
-    <t>Laila Magdy</t>
-  </si>
-  <si>
-    <t>عبد الرحمن الشريف</t>
-  </si>
-  <si>
-    <t>Abdelrahman Sherif</t>
+    <t>محمود عاطف</t>
+  </si>
+  <si>
+    <t>Mahmoud Atif</t>
+  </si>
+  <si>
+    <t>لينا بشرى حسبو</t>
+  </si>
+  <si>
+    <t>Lina Boshra Hassabo</t>
+  </si>
+  <si>
+    <t>اية الحج</t>
+  </si>
+  <si>
+    <t>Aya ELhag</t>
+  </si>
+  <si>
+    <t>صالح صبحي</t>
+  </si>
+  <si>
+    <t>مصطفى محمد</t>
+  </si>
+  <si>
+    <t>Mostafa Mohamed</t>
+  </si>
+  <si>
+    <t>التوحيد و النور</t>
+  </si>
+  <si>
+    <t>هنا حسن</t>
+  </si>
+  <si>
+    <t>Hana Hassan</t>
+  </si>
+  <si>
+    <t>اول عباس</t>
+  </si>
+  <si>
+    <t>يوسف قاسم</t>
+  </si>
+  <si>
+    <t>Yousef Kassem</t>
   </si>
   <si>
     <t>ميدان رابعة</t>
   </si>
   <si>
-    <t>نور فؤاد</t>
-  </si>
-  <si>
-    <t>Nour Fouad</t>
-  </si>
-  <si>
-    <t>TAX9</t>
-  </si>
-  <si>
-    <t>نور أيمن</t>
-  </si>
-  <si>
-    <t>Nour Ayman</t>
+    <t>عبد العزيز مجدي</t>
+  </si>
+  <si>
+    <t>Abdelazeez Magdi</t>
+  </si>
+  <si>
+    <t>امجد عادل</t>
+  </si>
+  <si>
+    <t>1280410652/966530800596 / 1143556948</t>
+  </si>
+  <si>
+    <t>Amjad Adel</t>
+  </si>
+  <si>
+    <t>فاطمة محمد حسن</t>
+  </si>
+  <si>
+    <t>Fatima Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>صلاح حسن صلاح</t>
+  </si>
+  <si>
+    <t>Salah Hassan Salah</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1647,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G65"/>
+  <dimension ref="B1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1889,217 +1685,219 @@
     </row>
     <row r="2" ht="15.25" spans="2:7">
       <c r="B2" s="4">
-        <v>10343278</v>
+        <v>10344672</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4">
+        <v>1154308527</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1142822210</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.25" spans="2:7">
       <c r="B3" s="4">
-        <v>10343408</v>
+        <v>10344660</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1062040643</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1019247490</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="2:7">
       <c r="B4" s="4">
-        <v>10343407</v>
+        <v>10344700</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1126313056</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1012764001</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="2:7">
       <c r="B5" s="4">
-        <v>10343406</v>
+        <v>10344674</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1152704666</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1022171730</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="2:7">
       <c r="B6" s="4">
-        <v>10343271</v>
+        <v>10344704</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1557048892</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1012997137</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="2:7">
       <c r="B7" s="4">
-        <v>10343276</v>
+        <v>10344654</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1010269460</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1118082037</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="2:7">
       <c r="B8" s="4">
-        <v>10343270</v>
+        <v>10344627</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4">
+        <v>1128181299</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1012692499</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="2:7">
       <c r="B9" s="4">
-        <v>10294264</v>
+        <v>10344688</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="2:7">
       <c r="B10" s="4">
-        <v>10343287</v>
+        <v>10344702</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1111641701</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1090500604</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="2:7">
       <c r="B11" s="4">
-        <v>10343404</v>
+        <v>10344630</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4">
+        <v>1000216194</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1121452045</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="2:7">
       <c r="B12" s="4">
-        <v>10343286</v>
+        <v>10344748</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="4">
-        <v>1005729091</v>
+        <v>1207053881</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>45</v>
@@ -2107,7 +1905,7 @@
     </row>
     <row r="13" ht="15.25" spans="2:7">
       <c r="B13" s="4">
-        <v>10343405</v>
+        <v>10344749</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>46</v>
@@ -2119,7 +1917,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="4">
-        <v>1065734525</v>
+        <v>1552456793</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>49</v>
@@ -2127,50 +1925,50 @@
     </row>
     <row r="14" ht="15.25" spans="2:7">
       <c r="B14" s="4">
-        <v>10343290</v>
+        <v>10344751</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4">
+        <v>1556577514</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1206006198</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="2:7">
       <c r="B15" s="4">
-        <v>10343397</v>
+        <v>10344752</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4">
+        <v>1144462771</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1112106710</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="2:7">
       <c r="B16" s="4">
-        <v>10344167</v>
+        <v>10344753</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>57</v>
@@ -2179,7 +1977,7 @@
         <v>58</v>
       </c>
       <c r="F16" s="4">
-        <v>1092831999</v>
+        <v>1149475370</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>59</v>
@@ -2187,19 +1985,19 @@
     </row>
     <row r="17" ht="15.25" spans="2:7">
       <c r="B17" s="4">
-        <v>10344284</v>
+        <v>10344755</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1004402706</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>63</v>
@@ -2207,19 +2005,19 @@
     </row>
     <row r="18" ht="15.25" spans="2:7">
       <c r="B18" s="4">
-        <v>10344250</v>
+        <v>10344757</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="4">
-        <v>1551584488</v>
+        <v>1093443771</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>66</v>
@@ -2227,359 +2025,359 @@
     </row>
     <row r="19" ht="15.25" spans="2:7">
       <c r="B19" s="4">
-        <v>10344282</v>
+        <v>10344762</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1154809525</v>
+        <v>69</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="2:7">
       <c r="B20" s="4">
-        <v>10344169</v>
+        <v>10344765</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1207169781</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="2:7">
       <c r="B21" s="4">
-        <v>10344173</v>
+        <v>10344767</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1117301562</v>
+        <v>76</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="2:7">
       <c r="B22" s="4">
-        <v>10344309</v>
+        <v>10344770</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F22" s="4">
-        <v>1146041916</v>
+        <v>1090642201</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="2:7">
       <c r="B23" s="4">
-        <v>10344188</v>
+        <v>10331191</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1114759572</v>
+        <v>82</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="2:7">
       <c r="B24" s="4">
-        <v>10344168</v>
+        <v>10344855</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" s="4">
-        <v>1033950513</v>
+        <v>1070390659</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="2:7">
       <c r="B25" s="4">
-        <v>10344240</v>
+        <v>10344856</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F25" s="4">
-        <v>1140254052</v>
+        <v>1095617866</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="2:7">
       <c r="B26" s="4">
-        <v>10344185</v>
+        <v>10344857</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F26" s="4">
-        <v>1126128951</v>
+        <v>1226167723</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="2:7">
       <c r="B27" s="4">
-        <v>10344274</v>
+        <v>10344858</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F27" s="4">
-        <v>1284234931</v>
+        <v>1066953383</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="2:7">
       <c r="B28" s="4">
-        <v>10344186</v>
+        <v>10344859</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F28" s="4">
-        <v>1098670413</v>
+        <v>1025470192</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="2:7">
       <c r="B29" s="4">
-        <v>10344307</v>
+        <v>10344860</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F29" s="4">
-        <v>1285622455</v>
+        <v>1505849880</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="2:7">
       <c r="B30" s="4">
-        <v>10344242</v>
+        <v>10344861</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30" s="4">
-        <v>1095204998</v>
+        <v>1024731489</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="2:7">
       <c r="B31" s="4">
-        <v>10344279</v>
+        <v>10344862</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1004911039</v>
+        <v>103</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="2:7">
-      <c r="B32" s="4" t="s">
-        <v>103</v>
+      <c r="B32" s="4">
+        <v>10344863</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F32" s="4">
-        <v>1226223707</v>
+        <v>1122706070</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="2:7">
       <c r="B33" s="4">
-        <v>10344236</v>
+        <v>10344864</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" s="4">
-        <v>1060392059</v>
+        <v>1129574541</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="2:7">
       <c r="B34" s="4">
-        <v>10344277</v>
+        <v>10344865</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="4">
+        <v>1153210480</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="2:7">
       <c r="B35" s="4">
-        <v>10344192</v>
+        <v>10344866</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="4">
+        <v>1021293302</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" ht="15.25" spans="2:7">
       <c r="B36" s="4">
-        <v>10344172</v>
+        <v>10344867</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>117</v>
       </c>
       <c r="F36" s="4">
-        <v>1001474051</v>
+        <v>1008333606</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>118</v>
@@ -2587,582 +2385,102 @@
     </row>
     <row r="37" ht="15.25" spans="2:7">
       <c r="B37" s="4">
-        <v>10344235</v>
+        <v>10344883</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F37" s="4">
-        <v>1145149773</v>
+        <v>1023850840</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="2:7">
       <c r="B38" s="4">
-        <v>10344175</v>
+        <v>10344884</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F38" s="4">
-        <v>1555097529</v>
+        <v>1099361043</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="2:7">
       <c r="B39" s="4">
-        <v>10344170</v>
+        <v>10344900</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1026041099</v>
+        <v>125</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" ht="15.25" spans="2:7">
       <c r="B40" s="4">
-        <v>10344266</v>
+        <v>10344901</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1555493119</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="2:7">
       <c r="B41" s="4">
-        <v>10344278</v>
+        <v>10344902</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F41" s="4">
-        <v>1121899603</v>
+        <v>1090598043</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="2:7">
-      <c r="B42" s="4">
-        <v>10344212</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1550894577</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" spans="2:7">
-      <c r="B43" s="4">
-        <v>10344252</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1509946439</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="2:7">
-      <c r="B44" s="4">
-        <v>10344286</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1040334849</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="2:7">
-      <c r="B45" s="4">
-        <v>10344214</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="2:7">
-      <c r="B46" s="4">
-        <v>10344308</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1555975766</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="2:7">
-      <c r="B47" s="4">
-        <v>10344261</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1203091448</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="2:7">
-      <c r="B48" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1152879982</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="2:7">
-      <c r="B49" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1010720003</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="2:7">
-      <c r="B50" s="4">
-        <v>10343996</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1094442317</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="2:7">
-      <c r="B51" s="4">
-        <v>10343858</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1011662562</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="2:7">
-      <c r="B52" s="4">
-        <v>10343869</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1020842747</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="2:7">
-      <c r="B53" s="4">
-        <v>10343941</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1110620041</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="2:7">
-      <c r="B54" s="4">
-        <v>10343937</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1515410373</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="2:7">
-      <c r="B55" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F55" s="4">
-        <v>1068128832</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="2:7">
-      <c r="B56" s="4">
-        <v>10343863</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1091530766</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="2:7">
-      <c r="B57" s="4">
-        <v>10343948</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1158021888</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="2:7">
-      <c r="B58" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1150504469</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="2:7">
-      <c r="B59" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1121284993</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="2:7">
-      <c r="B60" s="4">
-        <v>10343860</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1129964189</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="2:7">
-      <c r="B61" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1147687920</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" spans="2:7">
-      <c r="B62" s="4">
-        <v>10343924</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" s="4">
-        <v>1115316268</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" spans="2:7">
-      <c r="B63" s="4">
-        <v>10343862</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1004708495</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" spans="2:7">
-      <c r="B64" s="4">
-        <v>10343861</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1018861565</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" spans="2:7">
-      <c r="B65" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1061882345</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/New-ID-5th-Settelment.xlsx
+++ b/New-ID-5th-Settelment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -47,112 +47,256 @@
     <t>Name in English</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>عزالدين سامي</t>
-  </si>
-  <si>
-    <t>ezzeldeen samy</t>
-  </si>
-  <si>
-    <t>سهيلة عاطف</t>
-  </si>
-  <si>
-    <t>Sohaila Atef</t>
-  </si>
-  <si>
-    <t>ميدان التحرير ابو سمرة</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>تبيان خالد</t>
-  </si>
-  <si>
-    <t>Tebyan khaled</t>
-  </si>
-  <si>
-    <t>قسم الوايلي</t>
+    <t>بوابة 24</t>
+  </si>
+  <si>
+    <t>م - الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>احمد سمير</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>الجزيرة</t>
+  </si>
+  <si>
+    <t>بهاء محمد</t>
+  </si>
+  <si>
+    <t>Bahaa Mohamed</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>ديانا طارق</t>
+  </si>
+  <si>
+    <t>Diana Tarek</t>
+  </si>
+  <si>
+    <t>روكسي - صيدلية التحرير</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>دينا عادل</t>
+  </si>
+  <si>
+    <t>1004868050 / 1223400410</t>
+  </si>
+  <si>
+    <t>Dina Adel</t>
+  </si>
+  <si>
+    <t>اكاديمية السادات</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>ماريشيا جورج</t>
+  </si>
+  <si>
+    <t>Maritchia George</t>
+  </si>
+  <si>
+    <t>الابيض اول فيصل</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>ميار ايمن علي</t>
+  </si>
+  <si>
+    <t>Mayar Ayman Aly</t>
+  </si>
+  <si>
+    <t>ندى مندور</t>
+  </si>
+  <si>
+    <t>Nada Mandour</t>
+  </si>
+  <si>
+    <t>بوابة 1</t>
+  </si>
+  <si>
+    <t>و - مدينتي</t>
+  </si>
+  <si>
+    <t>نوران سامي أحمد</t>
+  </si>
+  <si>
+    <t>1283179991/905301856788</t>
+  </si>
+  <si>
+    <t>Nouran Sami Ahmed</t>
+  </si>
+  <si>
+    <t>معرض علاء الدين</t>
   </si>
   <si>
     <t>العباسية و الضاهر</t>
   </si>
   <si>
-    <t>احمد هشام</t>
-  </si>
-  <si>
-    <t>Ahmed Hesham</t>
-  </si>
-  <si>
-    <t>كارفور العبور</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>نورهان رفيق</t>
-  </si>
-  <si>
-    <t>Nourhan Rafik</t>
-  </si>
-  <si>
-    <t>طلعه قليوب</t>
+    <t>رحيق اسماعيل</t>
+  </si>
+  <si>
+    <t>Raheeq Ismail</t>
+  </si>
+  <si>
+    <t>رزان اسماعيل</t>
+  </si>
+  <si>
+    <t>1507289885 / 249998331555</t>
+  </si>
+  <si>
+    <t>Razan Ismail</t>
+  </si>
+  <si>
+    <t>كشري هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>روني ماثيو</t>
+  </si>
+  <si>
+    <t>Rony Emil</t>
+  </si>
+  <si>
+    <t>شيرين هشام</t>
+  </si>
+  <si>
+    <t>Sherien Hesham</t>
+  </si>
+  <si>
+    <t>يارا السيد</t>
+  </si>
+  <si>
+    <t>Yara Al Sayed</t>
+  </si>
+  <si>
+    <t>كريم بنونة</t>
+  </si>
+  <si>
+    <t>م - المقطم</t>
+  </si>
+  <si>
+    <t>ياسمين ايهاب</t>
+  </si>
+  <si>
+    <t>Yasmeen Ihab</t>
+  </si>
+  <si>
+    <t>المرج</t>
   </si>
   <si>
     <t>دائري</t>
   </si>
   <si>
-    <t>محمد الجندى</t>
-  </si>
-  <si>
-    <t>Mohamed El genedy</t>
-  </si>
-  <si>
-    <t>البيني هرم</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>عبد الرحمن عشري</t>
-  </si>
-  <si>
-    <t>Abdelrahman Ashry</t>
-  </si>
-  <si>
-    <t>المريوطية</t>
-  </si>
-  <si>
-    <t>مازن مصطفى</t>
-  </si>
-  <si>
-    <t>106066 8764</t>
-  </si>
-  <si>
-    <t>Mazen Mostafa</t>
-  </si>
-  <si>
-    <t>الابيض</t>
-  </si>
-  <si>
-    <t>محمد مجدي محمود</t>
-  </si>
-  <si>
-    <t>Mohamed Magdy Mahmoud</t>
-  </si>
-  <si>
-    <t>كريم بنونة</t>
-  </si>
-  <si>
-    <t>م - المقطم</t>
-  </si>
-  <si>
-    <t>زينة زكي</t>
-  </si>
-  <si>
-    <t>Zeina Ali</t>
+    <t>خان ستيف</t>
+  </si>
+  <si>
+    <t>Khan steve</t>
+  </si>
+  <si>
+    <t>حبيبة خالد</t>
+  </si>
+  <si>
+    <t>Habiba Khaled</t>
+  </si>
+  <si>
+    <t>التوحيد والنور</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>حبيبة جعفر</t>
+  </si>
+  <si>
+    <t>Habiba Gaafar</t>
+  </si>
+  <si>
+    <t>التوحيد و النور</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>أيمن عماد</t>
+  </si>
+  <si>
+    <t>Ayman Emad</t>
+  </si>
+  <si>
+    <t>ارابيلا</t>
+  </si>
+  <si>
+    <t>مراد مصطفى كمال</t>
+  </si>
+  <si>
+    <t>Mourad Mustafa kamal</t>
+  </si>
+  <si>
+    <t>اول مكرم</t>
+  </si>
+  <si>
+    <t>أحمد مصطفى كامل</t>
+  </si>
+  <si>
+    <t>Ahmed Mostafa Kamel</t>
+  </si>
+  <si>
+    <t>بوابة 13</t>
+  </si>
+  <si>
+    <t>مازن الباجوري</t>
+  </si>
+  <si>
+    <t>Mazen ElBagoury</t>
+  </si>
+  <si>
+    <t>روكسي</t>
+  </si>
+  <si>
+    <t>حسام محمد نبيل حمدي</t>
+  </si>
+  <si>
+    <t>Hussam Mohamed Nabil</t>
+  </si>
+  <si>
+    <t>مصطفى مدحت</t>
+  </si>
+  <si>
+    <t>Mostafa Medhat</t>
+  </si>
+  <si>
+    <t>ميدان ابن الحكم</t>
+  </si>
+  <si>
+    <t>فايزة كمال</t>
+  </si>
+  <si>
+    <t>Fayza Kamal</t>
+  </si>
+  <si>
+    <t>الجراج</t>
+  </si>
+  <si>
+    <t>عبد الله جمال</t>
+  </si>
+  <si>
+    <t>Abdullah Gamal</t>
   </si>
   <si>
     <t>كشك اللحمه</t>
@@ -161,268 +305,28 @@
     <t>و - الشروق</t>
   </si>
   <si>
-    <t>عمرو يوسف</t>
-  </si>
-  <si>
-    <t>Amr Youssef</t>
-  </si>
-  <si>
-    <t>وتر واي</t>
-  </si>
-  <si>
-    <t>م - الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>محمد أيمن</t>
-  </si>
-  <si>
-    <t>Mohamed Ayman</t>
-  </si>
-  <si>
-    <t>بوابة 6</t>
-  </si>
-  <si>
-    <t>مهند هاني</t>
-  </si>
-  <si>
-    <t>Mohannad Hani</t>
-  </si>
-  <si>
-    <t>بوابة 24</t>
-  </si>
-  <si>
-    <t>يوسف طارق</t>
-  </si>
-  <si>
-    <t>Youssef Tarek</t>
-  </si>
-  <si>
-    <t>كشري هند الحي العاشر</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>محمود عبدالله علي</t>
-  </si>
-  <si>
-    <t>Mahmoud Abdullah Ali</t>
-  </si>
-  <si>
-    <t>ابن الحكم</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>لوكا اميل</t>
-  </si>
-  <si>
-    <t>Loka Emil</t>
-  </si>
-  <si>
-    <t>الغاز</t>
-  </si>
-  <si>
-    <t>نور الدين محمود</t>
-  </si>
-  <si>
-    <t>Nour Eldien Mahmoud</t>
-  </si>
-  <si>
-    <t>بوابة 1</t>
-  </si>
-  <si>
-    <t>و - مدينتي</t>
-  </si>
-  <si>
-    <t>منال كمبال</t>
-  </si>
-  <si>
-    <t>1031234093 / 97431182313</t>
-  </si>
-  <si>
-    <t>Manal Kambal</t>
-  </si>
-  <si>
-    <t>مريوطية</t>
-  </si>
-  <si>
-    <t>خالد عمر</t>
-  </si>
-  <si>
-    <t>Khalid Omer</t>
+    <t>محمد علاء</t>
+  </si>
+  <si>
+    <t>Mohamed Alaa</t>
+  </si>
+  <si>
+    <t>؟</t>
+  </si>
+  <si>
+    <t>مصطفى حازم</t>
+  </si>
+  <si>
+    <t>Mustafa Hazem</t>
   </si>
   <si>
     <t>الف مسكن</t>
   </si>
   <si>
-    <t>كاوا تشول</t>
-  </si>
-  <si>
-    <t>1505587246 / 1152868070</t>
-  </si>
-  <si>
-    <t>kawa chol</t>
-  </si>
-  <si>
-    <t>احمد سيف</t>
-  </si>
-  <si>
-    <t>Ahmed Saif</t>
-  </si>
-  <si>
-    <t>الجراج</t>
-  </si>
-  <si>
-    <t>امنية كمال</t>
-  </si>
-  <si>
-    <t>1507944711 WP / 1553516466</t>
-  </si>
-  <si>
-    <t>Omnia Kamal</t>
-  </si>
-  <si>
-    <t>يوسف حسن</t>
-  </si>
-  <si>
-    <t>Yousif Hassan</t>
-  </si>
-  <si>
-    <t>سلم صقر قريش</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>مصطفى عبد الباسط</t>
-  </si>
-  <si>
-    <t>Mustafa Basta</t>
-  </si>
-  <si>
-    <t>جوري أمير فاروق عبدالعال</t>
-  </si>
-  <si>
-    <t>Jurey Ameer Farouq</t>
-  </si>
-  <si>
-    <t>محمد حكيم</t>
-  </si>
-  <si>
-    <t>Mohamed hakeem</t>
-  </si>
-  <si>
-    <t>محمد احمد</t>
-  </si>
-  <si>
-    <t>Mohamed Ahmed</t>
-  </si>
-  <si>
-    <t>مسجد السلام</t>
-  </si>
-  <si>
-    <t>مصعب صديق</t>
-  </si>
-  <si>
-    <t>Musaab Siddig</t>
-  </si>
-  <si>
-    <t>مؤمن صلاح</t>
-  </si>
-  <si>
-    <t>Moamen Salah</t>
-  </si>
-  <si>
-    <t>اول مكرم</t>
-  </si>
-  <si>
-    <t>أحمد السيد علي أحمد</t>
-  </si>
-  <si>
-    <t>1556039554 / +249916848761</t>
-  </si>
-  <si>
-    <t>Ahmed Alsayed Ahmed</t>
-  </si>
-  <si>
-    <t>سلم البارون</t>
-  </si>
-  <si>
-    <t>محمود عاطف</t>
-  </si>
-  <si>
-    <t>Mahmoud Atif</t>
-  </si>
-  <si>
-    <t>لينا بشرى حسبو</t>
-  </si>
-  <si>
-    <t>Lina Boshra Hassabo</t>
-  </si>
-  <si>
-    <t>اية الحج</t>
-  </si>
-  <si>
-    <t>Aya ELhag</t>
-  </si>
-  <si>
-    <t>صالح صبحي</t>
-  </si>
-  <si>
-    <t>مصطفى محمد</t>
-  </si>
-  <si>
-    <t>Mostafa Mohamed</t>
-  </si>
-  <si>
-    <t>التوحيد و النور</t>
-  </si>
-  <si>
-    <t>هنا حسن</t>
-  </si>
-  <si>
-    <t>Hana Hassan</t>
-  </si>
-  <si>
-    <t>اول عباس</t>
-  </si>
-  <si>
-    <t>يوسف قاسم</t>
-  </si>
-  <si>
-    <t>Yousef Kassem</t>
-  </si>
-  <si>
-    <t>ميدان رابعة</t>
-  </si>
-  <si>
-    <t>عبد العزيز مجدي</t>
-  </si>
-  <si>
-    <t>Abdelazeez Magdi</t>
-  </si>
-  <si>
-    <t>امجد عادل</t>
-  </si>
-  <si>
-    <t>1280410652/966530800596 / 1143556948</t>
-  </si>
-  <si>
-    <t>Amjad Adel</t>
-  </si>
-  <si>
-    <t>فاطمة محمد حسن</t>
-  </si>
-  <si>
-    <t>Fatima Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>صلاح حسن صلاح</t>
-  </si>
-  <si>
-    <t>Salah Hassan Salah</t>
+    <t>إيمانويل بوث</t>
+  </si>
+  <si>
+    <t>Emmanuel Both</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1554,7 @@
   <dimension ref="B1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B16" sqref="B16:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1685,239 +1589,239 @@
     </row>
     <row r="2" ht="15.25" spans="2:7">
       <c r="B2" s="4">
-        <v>10344672</v>
+        <v>10347346</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4">
-        <v>1154308527</v>
+        <v>1002498107</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.25" spans="2:7">
       <c r="B3" s="4">
-        <v>10344660</v>
+        <v>10347312</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4">
-        <v>1062040643</v>
+        <v>1222544740</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="2:7">
       <c r="B4" s="4">
-        <v>10344700</v>
+        <v>10347319</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4">
-        <v>1126313056</v>
+        <v>1117297939</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="2:7">
       <c r="B5" s="4">
-        <v>10344674</v>
+        <v>10347267</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1152704666</v>
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="2:7">
       <c r="B6" s="4">
-        <v>10344704</v>
+        <v>10347318</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4">
-        <v>1557048892</v>
+        <v>1012805735</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="2:7">
       <c r="B7" s="4">
-        <v>10344654</v>
+        <v>10285489</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4">
-        <v>1010269460</v>
+        <v>1026740215</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="2:7">
       <c r="B8" s="4">
-        <v>10344627</v>
+        <v>10347299</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4">
-        <v>1128181299</v>
+        <v>1200050553</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="2:7">
       <c r="B9" s="4">
-        <v>10344688</v>
+        <v>10347357</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="2:7">
       <c r="B10" s="4">
-        <v>10344702</v>
+        <v>10347274</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4">
-        <v>1111641701</v>
+        <v>1108718978</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="2:7">
       <c r="B11" s="4">
-        <v>10344630</v>
+        <v>10347537</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1000216194</v>
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="2:7">
       <c r="B12" s="4">
-        <v>10344748</v>
+        <v>10347283</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" s="4">
-        <v>1207053881</v>
+        <v>1016826235</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="2:7">
       <c r="B13" s="4">
-        <v>10344749</v>
+        <v>10347285</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="4">
-        <v>1552456793</v>
+        <v>1286209830</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>49</v>
@@ -1925,39 +1829,39 @@
     </row>
     <row r="14" ht="15.25" spans="2:7">
       <c r="B14" s="4">
-        <v>10344751</v>
+        <v>10347270</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4">
+        <v>1032874133</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1556577514</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="2:7">
       <c r="B15" s="4">
-        <v>10344752</v>
+        <v>10347380</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="4">
-        <v>1144462771</v>
+        <v>1001473220</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>55</v>
@@ -1965,7 +1869,7 @@
     </row>
     <row r="16" ht="15.25" spans="2:7">
       <c r="B16" s="4">
-        <v>10344753</v>
+        <v>10281227</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>56</v>
@@ -1977,7 +1881,7 @@
         <v>58</v>
       </c>
       <c r="F16" s="4">
-        <v>1149475370</v>
+        <v>1115409972</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>59</v>
@@ -1985,239 +1889,239 @@
     </row>
     <row r="17" ht="15.25" spans="2:7">
       <c r="B17" s="4">
-        <v>10344755</v>
+        <v>10347589</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4">
+        <v>1148282927</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1004402706</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="2:7">
       <c r="B18" s="4">
-        <v>10344757</v>
+        <v>10347593</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4">
+        <v>1011919329</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1093443771</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="2:7">
       <c r="B19" s="4">
-        <v>10344762</v>
+        <v>10347595</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4">
+        <v>1158630184</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="2:7">
       <c r="B20" s="4">
-        <v>10344765</v>
+        <v>10347601</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1555693374</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1207169781</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="2:7">
       <c r="B21" s="4">
-        <v>10344767</v>
+        <v>10347605</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1222696146</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="2:7">
       <c r="B22" s="4">
-        <v>10344770</v>
+        <v>10347607</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" s="4">
-        <v>1090642201</v>
+        <v>1093300936</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="2:7">
       <c r="B23" s="4">
-        <v>10331191</v>
+        <v>10347609</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1091172333</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="2:7">
       <c r="B24" s="4">
-        <v>10344855</v>
+        <v>10347630</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F24" s="4">
-        <v>1070390659</v>
+        <v>1144418499</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="2:7">
       <c r="B25" s="4">
-        <v>10344856</v>
+        <v>10347638</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4">
-        <v>1095617866</v>
+        <v>1070677030</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="2:7">
       <c r="B26" s="4">
-        <v>10344857</v>
+        <v>10347646</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F26" s="4">
-        <v>1226167723</v>
+        <v>1020340671</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="2:7">
       <c r="B27" s="4">
-        <v>10344858</v>
+        <v>10347754</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1096062793</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1066953383</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="2:7">
       <c r="B28" s="4">
-        <v>10344859</v>
+        <v>10347758</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F28" s="4">
-        <v>1025470192</v>
+        <v>1228798735</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>96</v>
@@ -2225,263 +2129,119 @@
     </row>
     <row r="29" ht="15.25" spans="2:7">
       <c r="B29" s="4">
-        <v>10344860</v>
+        <v>10347769</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>98</v>
       </c>
       <c r="F29" s="4">
-        <v>1505849880</v>
+        <v>1023360348</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="2:7">
-      <c r="B30" s="4">
-        <v>10344861</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1024731489</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" ht="15.25" spans="2:7">
-      <c r="B31" s="4">
-        <v>10344862</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" ht="15.25" spans="2:7">
-      <c r="B32" s="4">
-        <v>10344863</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1122706070</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" ht="15.25" spans="2:7">
-      <c r="B33" s="4">
-        <v>10344864</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1129574541</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" ht="15.25" spans="2:7">
-      <c r="B34" s="4">
-        <v>10344865</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1153210480</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" ht="15.25" spans="2:7">
-      <c r="B35" s="4">
-        <v>10344866</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1021293302</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" ht="15.25" spans="2:7">
-      <c r="B36" s="4">
-        <v>10344867</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1008333606</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" ht="15.25" spans="2:7">
-      <c r="B37" s="4">
-        <v>10344883</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1023850840</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" ht="15.25" spans="2:7">
-      <c r="B38" s="4">
-        <v>10344884</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1099361043</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" ht="15.25" spans="2:7">
-      <c r="B39" s="4">
-        <v>10344900</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" ht="15.25" spans="2:7">
-      <c r="B40" s="4">
-        <v>10344901</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1555493119</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" ht="15.25" spans="2:7">
-      <c r="B41" s="4">
-        <v>10344902</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1090598043</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
